--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -15,13 +15,14 @@
     <sheet name="Residuals for Clean Bonds" sheetId="6" r:id="rId6"/>
     <sheet name="Residuals for All Bonds" sheetId="7" r:id="rId7"/>
     <sheet name="Spot Rates from DoT" sheetId="8" r:id="rId8"/>
+    <sheet name="Downloaded Daily US Par rates" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="541">
   <si>
     <t>Cleaned</t>
   </si>
@@ -1048,6 +1049,603 @@
   <si>
     <t>Spot Rate (%)</t>
   </si>
+  <si>
+    <t>1 Mo</t>
+  </si>
+  <si>
+    <t>1.5 Month</t>
+  </si>
+  <si>
+    <t>2 Mo</t>
+  </si>
+  <si>
+    <t>3 Mo</t>
+  </si>
+  <si>
+    <t>4 Mo</t>
+  </si>
+  <si>
+    <t>6 Mo</t>
+  </si>
+  <si>
+    <t>1 Yr</t>
+  </si>
+  <si>
+    <t>2 Yr</t>
+  </si>
+  <si>
+    <t>3 Yr</t>
+  </si>
+  <si>
+    <t>5 Yr</t>
+  </si>
+  <si>
+    <t>7 Yr</t>
+  </si>
+  <si>
+    <t>10 Yr</t>
+  </si>
+  <si>
+    <t>20 Yr</t>
+  </si>
+  <si>
+    <t>30 Yr</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>09/25/2025</t>
+  </si>
+  <si>
+    <t>09/24/2025</t>
+  </si>
+  <si>
+    <t>09/23/2025</t>
+  </si>
+  <si>
+    <t>09/22/2025</t>
+  </si>
+  <si>
+    <t>09/19/2025</t>
+  </si>
+  <si>
+    <t>09/18/2025</t>
+  </si>
+  <si>
+    <t>09/17/2025</t>
+  </si>
+  <si>
+    <t>09/16/2025</t>
+  </si>
+  <si>
+    <t>09/15/2025</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>09/11/2025</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>09/08/2025</t>
+  </si>
+  <si>
+    <t>09/05/2025</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>09/03/2025</t>
+  </si>
+  <si>
+    <t>09/02/2025</t>
+  </si>
+  <si>
+    <t>08/29/2025</t>
+  </si>
+  <si>
+    <t>08/28/2025</t>
+  </si>
+  <si>
+    <t>08/27/2025</t>
+  </si>
+  <si>
+    <t>08/26/2025</t>
+  </si>
+  <si>
+    <t>08/25/2025</t>
+  </si>
+  <si>
+    <t>08/22/2025</t>
+  </si>
+  <si>
+    <t>08/21/2025</t>
+  </si>
+  <si>
+    <t>08/20/2025</t>
+  </si>
+  <si>
+    <t>08/19/2025</t>
+  </si>
+  <si>
+    <t>08/18/2025</t>
+  </si>
+  <si>
+    <t>08/15/2025</t>
+  </si>
+  <si>
+    <t>08/14/2025</t>
+  </si>
+  <si>
+    <t>08/13/2025</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>08/11/2025</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>08/06/2025</t>
+  </si>
+  <si>
+    <t>08/05/2025</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>07/31/2025</t>
+  </si>
+  <si>
+    <t>07/30/2025</t>
+  </si>
+  <si>
+    <t>07/29/2025</t>
+  </si>
+  <si>
+    <t>07/28/2025</t>
+  </si>
+  <si>
+    <t>07/25/2025</t>
+  </si>
+  <si>
+    <t>07/24/2025</t>
+  </si>
+  <si>
+    <t>07/23/2025</t>
+  </si>
+  <si>
+    <t>07/22/2025</t>
+  </si>
+  <si>
+    <t>07/21/2025</t>
+  </si>
+  <si>
+    <t>07/18/2025</t>
+  </si>
+  <si>
+    <t>07/17/2025</t>
+  </si>
+  <si>
+    <t>07/16/2025</t>
+  </si>
+  <si>
+    <t>07/15/2025</t>
+  </si>
+  <si>
+    <t>07/14/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>07/09/2025</t>
+  </si>
+  <si>
+    <t>07/08/2025</t>
+  </si>
+  <si>
+    <t>07/07/2025</t>
+  </si>
+  <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>07/02/2025</t>
+  </si>
+  <si>
+    <t>07/01/2025</t>
+  </si>
+  <si>
+    <t>06/30/2025</t>
+  </si>
+  <si>
+    <t>06/27/2025</t>
+  </si>
+  <si>
+    <t>06/26/2025</t>
+  </si>
+  <si>
+    <t>06/25/2025</t>
+  </si>
+  <si>
+    <t>06/24/2025</t>
+  </si>
+  <si>
+    <t>06/23/2025</t>
+  </si>
+  <si>
+    <t>06/20/2025</t>
+  </si>
+  <si>
+    <t>06/18/2025</t>
+  </si>
+  <si>
+    <t>06/17/2025</t>
+  </si>
+  <si>
+    <t>06/16/2025</t>
+  </si>
+  <si>
+    <t>06/13/2025</t>
+  </si>
+  <si>
+    <t>06/12/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
+    <t>06/09/2025</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>06/05/2025</t>
+  </si>
+  <si>
+    <t>06/04/2025</t>
+  </si>
+  <si>
+    <t>06/03/2025</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>05/30/2025</t>
+  </si>
+  <si>
+    <t>05/29/2025</t>
+  </si>
+  <si>
+    <t>05/28/2025</t>
+  </si>
+  <si>
+    <t>05/27/2025</t>
+  </si>
+  <si>
+    <t>05/23/2025</t>
+  </si>
+  <si>
+    <t>05/22/2025</t>
+  </si>
+  <si>
+    <t>05/21/2025</t>
+  </si>
+  <si>
+    <t>05/20/2025</t>
+  </si>
+  <si>
+    <t>05/19/2025</t>
+  </si>
+  <si>
+    <t>05/16/2025</t>
+  </si>
+  <si>
+    <t>05/15/2025</t>
+  </si>
+  <si>
+    <t>05/14/2025</t>
+  </si>
+  <si>
+    <t>05/13/2025</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>05/08/2025</t>
+  </si>
+  <si>
+    <t>05/07/2025</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>05/05/2025</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>05/01/2025</t>
+  </si>
+  <si>
+    <t>04/30/2025</t>
+  </si>
+  <si>
+    <t>04/29/2025</t>
+  </si>
+  <si>
+    <t>04/28/2025</t>
+  </si>
+  <si>
+    <t>04/25/2025</t>
+  </si>
+  <si>
+    <t>04/24/2025</t>
+  </si>
+  <si>
+    <t>04/23/2025</t>
+  </si>
+  <si>
+    <t>04/22/2025</t>
+  </si>
+  <si>
+    <t>04/21/2025</t>
+  </si>
+  <si>
+    <t>04/17/2025</t>
+  </si>
+  <si>
+    <t>04/16/2025</t>
+  </si>
+  <si>
+    <t>04/15/2025</t>
+  </si>
+  <si>
+    <t>04/14/2025</t>
+  </si>
+  <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>04/10/2025</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t>04/01/2025</t>
+  </si>
+  <si>
+    <t>03/31/2025</t>
+  </si>
+  <si>
+    <t>03/28/2025</t>
+  </si>
+  <si>
+    <t>03/27/2025</t>
+  </si>
+  <si>
+    <t>03/26/2025</t>
+  </si>
+  <si>
+    <t>03/25/2025</t>
+  </si>
+  <si>
+    <t>03/24/2025</t>
+  </si>
+  <si>
+    <t>03/21/2025</t>
+  </si>
+  <si>
+    <t>03/20/2025</t>
+  </si>
+  <si>
+    <t>03/19/2025</t>
+  </si>
+  <si>
+    <t>03/18/2025</t>
+  </si>
+  <si>
+    <t>03/17/2025</t>
+  </si>
+  <si>
+    <t>03/14/2025</t>
+  </si>
+  <si>
+    <t>03/13/2025</t>
+  </si>
+  <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>03/05/2025</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>02/28/2025</t>
+  </si>
+  <si>
+    <t>02/27/2025</t>
+  </si>
+  <si>
+    <t>02/26/2025</t>
+  </si>
+  <si>
+    <t>02/25/2025</t>
+  </si>
+  <si>
+    <t>02/24/2025</t>
+  </si>
+  <si>
+    <t>02/21/2025</t>
+  </si>
+  <si>
+    <t>02/20/2025</t>
+  </si>
+  <si>
+    <t>02/19/2025</t>
+  </si>
+  <si>
+    <t>02/18/2025</t>
+  </si>
+  <si>
+    <t>02/14/2025</t>
+  </si>
+  <si>
+    <t>02/13/2025</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>02/11/2025</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>02/07/2025</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>02/05/2025</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
+  </si>
+  <si>
+    <t>02/03/2025</t>
+  </si>
+  <si>
+    <t>01/31/2025</t>
+  </si>
+  <si>
+    <t>01/30/2025</t>
+  </si>
+  <si>
+    <t>01/29/2025</t>
+  </si>
+  <si>
+    <t>01/28/2025</t>
+  </si>
+  <si>
+    <t>01/27/2025</t>
+  </si>
+  <si>
+    <t>01/24/2025</t>
+  </si>
+  <si>
+    <t>01/23/2025</t>
+  </si>
+  <si>
+    <t>01/22/2025</t>
+  </si>
+  <si>
+    <t>01/21/2025</t>
+  </si>
+  <si>
+    <t>01/17/2025</t>
+  </si>
+  <si>
+    <t>01/16/2025</t>
+  </si>
+  <si>
+    <t>01/15/2025</t>
+  </si>
+  <si>
+    <t>01/14/2025</t>
+  </si>
+  <si>
+    <t>01/13/2025</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>01/06/2025</t>
+  </si>
+  <si>
+    <t>01/03/2025</t>
+  </si>
+  <si>
+    <t>01/02/2025</t>
+  </si>
 </sst>
 </file>
 
@@ -62550,10 +63148,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="B2">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
       <c r="C2">
-        <v>4.35</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -62561,10 +63159,10 @@
         <v>0.125</v>
       </c>
       <c r="B3">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="C3">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -62572,10 +63170,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B4">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="C4">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -62583,10 +63181,10 @@
         <v>0.25</v>
       </c>
       <c r="B5">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="C5">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -62594,10 +63192,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B6">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -62605,10 +63203,10 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="C7">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -62616,10 +63214,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>4.11</v>
+        <v>4.15</v>
       </c>
       <c r="C8">
-        <v>4.11</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -62627,10 +63225,10 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4.04</v>
+        <v>4.13</v>
       </c>
       <c r="C9">
-        <v>4.037011888878128</v>
+        <v>4.128566118213906</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -62638,10 +63236,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>4.01</v>
+        <v>4.17</v>
       </c>
       <c r="C10">
-        <v>4.006870562889775</v>
+        <v>4.171300025980162</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -62649,10 +63247,10 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>4.09</v>
+        <v>4.23</v>
       </c>
       <c r="C11">
-        <v>4.096073949942092</v>
+        <v>4.236582823561585</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -62660,10 +63258,10 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>4.22</v>
+        <v>4.32</v>
       </c>
       <c r="C12">
-        <v>4.24209759694385</v>
+        <v>4.337207396820597</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -62671,10 +63269,10 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="C13">
-        <v>4.380761502853137</v>
+        <v>4.428919134017661</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -62682,10 +63280,10 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>4.68</v>
+        <v>4.69</v>
       </c>
       <c r="C14">
-        <v>4.914847451264315</v>
+        <v>4.887768065921216</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -62696,7 +63294,8622 @@
         <v>4.66</v>
       </c>
       <c r="C15">
-        <v>4.650786132816798</v>
+        <v>4.635549443828868</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O185"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2">
+        <v>4.24</v>
+      </c>
+      <c r="C2">
+        <v>4.2</v>
+      </c>
+      <c r="D2">
+        <v>4.18</v>
+      </c>
+      <c r="E2">
+        <v>4.04</v>
+      </c>
+      <c r="F2">
+        <v>4.01</v>
+      </c>
+      <c r="G2">
+        <v>3.85</v>
+      </c>
+      <c r="H2">
+        <v>3.68</v>
+      </c>
+      <c r="I2">
+        <v>3.64</v>
+      </c>
+      <c r="J2">
+        <v>3.66</v>
+      </c>
+      <c r="K2">
+        <v>3.75</v>
+      </c>
+      <c r="L2">
+        <v>3.94</v>
+      </c>
+      <c r="M2">
+        <v>4.18</v>
+      </c>
+      <c r="N2">
+        <v>4.73</v>
+      </c>
+      <c r="O2">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3">
+        <v>4.18</v>
+      </c>
+      <c r="C3">
+        <v>4.19</v>
+      </c>
+      <c r="D3">
+        <v>4.13</v>
+      </c>
+      <c r="E3">
+        <v>4.02</v>
+      </c>
+      <c r="F3">
+        <v>3.98</v>
+      </c>
+      <c r="G3">
+        <v>3.82</v>
+      </c>
+      <c r="H3">
+        <v>3.63</v>
+      </c>
+      <c r="I3">
+        <v>3.57</v>
+      </c>
+      <c r="J3">
+        <v>3.6</v>
+      </c>
+      <c r="K3">
+        <v>3.7</v>
+      </c>
+      <c r="L3">
+        <v>3.91</v>
+      </c>
+      <c r="M3">
+        <v>4.16</v>
+      </c>
+      <c r="N3">
+        <v>4.73</v>
+      </c>
+      <c r="O3">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4">
+        <v>4.16</v>
+      </c>
+      <c r="C4">
+        <v>4.18</v>
+      </c>
+      <c r="D4">
+        <v>4.12</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3.97</v>
+      </c>
+      <c r="G4">
+        <v>3.81</v>
+      </c>
+      <c r="H4">
+        <v>3.61</v>
+      </c>
+      <c r="I4">
+        <v>3.53</v>
+      </c>
+      <c r="J4">
+        <v>3.57</v>
+      </c>
+      <c r="K4">
+        <v>3.68</v>
+      </c>
+      <c r="L4">
+        <v>3.87</v>
+      </c>
+      <c r="M4">
+        <v>4.12</v>
+      </c>
+      <c r="N4">
+        <v>4.7</v>
+      </c>
+      <c r="O4">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5">
+        <v>4.17</v>
+      </c>
+      <c r="C5">
+        <v>4.15</v>
+      </c>
+      <c r="D5">
+        <v>4.13</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3.98</v>
+      </c>
+      <c r="G5">
+        <v>3.81</v>
+      </c>
+      <c r="H5">
+        <v>3.61</v>
+      </c>
+      <c r="I5">
+        <v>3.61</v>
+      </c>
+      <c r="J5">
+        <v>3.59</v>
+      </c>
+      <c r="K5">
+        <v>3.71</v>
+      </c>
+      <c r="L5">
+        <v>3.9</v>
+      </c>
+      <c r="M5">
+        <v>4.15</v>
+      </c>
+      <c r="N5">
+        <v>4.73</v>
+      </c>
+      <c r="O5">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6">
+        <v>4.19</v>
+      </c>
+      <c r="C6">
+        <v>4.16</v>
+      </c>
+      <c r="D6">
+        <v>4.14</v>
+      </c>
+      <c r="E6">
+        <v>4.03</v>
+      </c>
+      <c r="F6">
+        <v>3.98</v>
+      </c>
+      <c r="G6">
+        <v>3.81</v>
+      </c>
+      <c r="H6">
+        <v>3.6</v>
+      </c>
+      <c r="I6">
+        <v>3.57</v>
+      </c>
+      <c r="J6">
+        <v>3.56</v>
+      </c>
+      <c r="K6">
+        <v>3.68</v>
+      </c>
+      <c r="L6">
+        <v>3.88</v>
+      </c>
+      <c r="M6">
+        <v>4.14</v>
+      </c>
+      <c r="N6">
+        <v>4.71</v>
+      </c>
+      <c r="O6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7">
+        <v>4.2</v>
+      </c>
+      <c r="C7">
+        <v>4.17</v>
+      </c>
+      <c r="D7">
+        <v>4.14</v>
+      </c>
+      <c r="E7">
+        <v>4.03</v>
+      </c>
+      <c r="F7">
+        <v>3.98</v>
+      </c>
+      <c r="G7">
+        <v>3.81</v>
+      </c>
+      <c r="H7">
+        <v>3.61</v>
+      </c>
+      <c r="I7">
+        <v>3.57</v>
+      </c>
+      <c r="J7">
+        <v>3.55</v>
+      </c>
+      <c r="K7">
+        <v>3.67</v>
+      </c>
+      <c r="L7">
+        <v>3.86</v>
+      </c>
+      <c r="M7">
+        <v>4.11</v>
+      </c>
+      <c r="N7">
+        <v>4.68</v>
+      </c>
+      <c r="O7">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8">
+        <v>4.17</v>
+      </c>
+      <c r="C8">
+        <v>4.16</v>
+      </c>
+      <c r="D8">
+        <v>4.11</v>
+      </c>
+      <c r="E8">
+        <v>4.02</v>
+      </c>
+      <c r="F8">
+        <v>3.97</v>
+      </c>
+      <c r="G8">
+        <v>3.8</v>
+      </c>
+      <c r="H8">
+        <v>3.6</v>
+      </c>
+      <c r="I8">
+        <v>3.52</v>
+      </c>
+      <c r="J8">
+        <v>3.51</v>
+      </c>
+      <c r="K8">
+        <v>3.62</v>
+      </c>
+      <c r="L8">
+        <v>3.81</v>
+      </c>
+      <c r="M8">
+        <v>4.06</v>
+      </c>
+      <c r="N8">
+        <v>4.62</v>
+      </c>
+      <c r="O8">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9">
+        <v>4.2</v>
+      </c>
+      <c r="C9">
+        <v>4.19</v>
+      </c>
+      <c r="D9">
+        <v>4.15</v>
+      </c>
+      <c r="E9">
+        <v>4.04</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3.81</v>
+      </c>
+      <c r="H9">
+        <v>3.62</v>
+      </c>
+      <c r="I9">
+        <v>3.51</v>
+      </c>
+      <c r="J9">
+        <v>3.47</v>
+      </c>
+      <c r="K9">
+        <v>3.59</v>
+      </c>
+      <c r="L9">
+        <v>3.78</v>
+      </c>
+      <c r="M9">
+        <v>4.04</v>
+      </c>
+      <c r="N9">
+        <v>4.61</v>
+      </c>
+      <c r="O9">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10">
+        <v>4.22</v>
+      </c>
+      <c r="C10">
+        <v>4.21</v>
+      </c>
+      <c r="D10">
+        <v>4.17</v>
+      </c>
+      <c r="E10">
+        <v>4.06</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>3.81</v>
+      </c>
+      <c r="H10">
+        <v>3.64</v>
+      </c>
+      <c r="I10">
+        <v>3.54</v>
+      </c>
+      <c r="J10">
+        <v>3.5</v>
+      </c>
+      <c r="K10">
+        <v>3.61</v>
+      </c>
+      <c r="L10">
+        <v>3.79</v>
+      </c>
+      <c r="M10">
+        <v>4.05</v>
+      </c>
+      <c r="N10">
+        <v>4.63</v>
+      </c>
+      <c r="O10">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11">
+        <v>4.24</v>
+      </c>
+      <c r="C11">
+        <v>4.24</v>
+      </c>
+      <c r="D11">
+        <v>4.2</v>
+      </c>
+      <c r="E11">
+        <v>4.08</v>
+      </c>
+      <c r="F11">
+        <v>4.02</v>
+      </c>
+      <c r="G11">
+        <v>3.83</v>
+      </c>
+      <c r="H11">
+        <v>3.66</v>
+      </c>
+      <c r="I11">
+        <v>3.56</v>
+      </c>
+      <c r="J11">
+        <v>3.52</v>
+      </c>
+      <c r="K11">
+        <v>3.63</v>
+      </c>
+      <c r="L11">
+        <v>3.81</v>
+      </c>
+      <c r="M11">
+        <v>4.06</v>
+      </c>
+      <c r="N11">
+        <v>4.65</v>
+      </c>
+      <c r="O11">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12">
+        <v>4.22</v>
+      </c>
+      <c r="C12">
+        <v>4.22</v>
+      </c>
+      <c r="D12">
+        <v>4.18</v>
+      </c>
+      <c r="E12">
+        <v>4.08</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3.82</v>
+      </c>
+      <c r="H12">
+        <v>3.63</v>
+      </c>
+      <c r="I12">
+        <v>3.52</v>
+      </c>
+      <c r="J12">
+        <v>3.47</v>
+      </c>
+      <c r="K12">
+        <v>3.59</v>
+      </c>
+      <c r="L12">
+        <v>3.76</v>
+      </c>
+      <c r="M12">
+        <v>4.01</v>
+      </c>
+      <c r="N12">
+        <v>4.61</v>
+      </c>
+      <c r="O12">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13">
+        <v>4.23</v>
+      </c>
+      <c r="C13">
+        <v>4.23</v>
+      </c>
+      <c r="D13">
+        <v>4.2</v>
+      </c>
+      <c r="E13">
+        <v>4.09</v>
+      </c>
+      <c r="F13">
+        <v>4.02</v>
+      </c>
+      <c r="G13">
+        <v>3.83</v>
+      </c>
+      <c r="H13">
+        <v>3.66</v>
+      </c>
+      <c r="I13">
+        <v>3.54</v>
+      </c>
+      <c r="J13">
+        <v>3.47</v>
+      </c>
+      <c r="K13">
+        <v>3.59</v>
+      </c>
+      <c r="L13">
+        <v>3.78</v>
+      </c>
+      <c r="M13">
+        <v>4.04</v>
+      </c>
+      <c r="N13">
+        <v>4.65</v>
+      </c>
+      <c r="O13">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14">
+        <v>4.25</v>
+      </c>
+      <c r="C14">
+        <v>4.25</v>
+      </c>
+      <c r="D14">
+        <v>4.22</v>
+      </c>
+      <c r="E14">
+        <v>4.1</v>
+      </c>
+      <c r="F14">
+        <v>4.05</v>
+      </c>
+      <c r="G14">
+        <v>3.85</v>
+      </c>
+      <c r="H14">
+        <v>3.68</v>
+      </c>
+      <c r="I14">
+        <v>3.54</v>
+      </c>
+      <c r="J14">
+        <v>3.48</v>
+      </c>
+      <c r="K14">
+        <v>3.61</v>
+      </c>
+      <c r="L14">
+        <v>3.81</v>
+      </c>
+      <c r="M14">
+        <v>4.08</v>
+      </c>
+      <c r="N14">
+        <v>4.68</v>
+      </c>
+      <c r="O14">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15">
+        <v>4.26</v>
+      </c>
+      <c r="C15">
+        <v>4.23</v>
+      </c>
+      <c r="D15">
+        <v>4.21</v>
+      </c>
+      <c r="E15">
+        <v>4.1</v>
+      </c>
+      <c r="F15">
+        <v>4.04</v>
+      </c>
+      <c r="G15">
+        <v>3.84</v>
+      </c>
+      <c r="H15">
+        <v>3.64</v>
+      </c>
+      <c r="I15">
+        <v>3.49</v>
+      </c>
+      <c r="J15">
+        <v>3.47</v>
+      </c>
+      <c r="K15">
+        <v>3.57</v>
+      </c>
+      <c r="L15">
+        <v>3.77</v>
+      </c>
+      <c r="M15">
+        <v>4.05</v>
+      </c>
+      <c r="N15">
+        <v>4.65</v>
+      </c>
+      <c r="O15">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16">
+        <v>4.29</v>
+      </c>
+      <c r="C16">
+        <v>4.24</v>
+      </c>
+      <c r="D16">
+        <v>4.24</v>
+      </c>
+      <c r="E16">
+        <v>4.07</v>
+      </c>
+      <c r="F16">
+        <v>4.05</v>
+      </c>
+      <c r="G16">
+        <v>3.85</v>
+      </c>
+      <c r="H16">
+        <v>3.65</v>
+      </c>
+      <c r="I16">
+        <v>3.51</v>
+      </c>
+      <c r="J16">
+        <v>3.48</v>
+      </c>
+      <c r="K16">
+        <v>3.59</v>
+      </c>
+      <c r="L16">
+        <v>3.8</v>
+      </c>
+      <c r="M16">
+        <v>4.1</v>
+      </c>
+      <c r="N16">
+        <v>4.72</v>
+      </c>
+      <c r="O16">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17">
+        <v>4.33</v>
+      </c>
+      <c r="C17">
+        <v>4.3</v>
+      </c>
+      <c r="D17">
+        <v>4.28</v>
+      </c>
+      <c r="E17">
+        <v>4.16</v>
+      </c>
+      <c r="F17">
+        <v>4.12</v>
+      </c>
+      <c r="G17">
+        <v>3.94</v>
+      </c>
+      <c r="H17">
+        <v>3.76</v>
+      </c>
+      <c r="I17">
+        <v>3.59</v>
+      </c>
+      <c r="J17">
+        <v>3.55</v>
+      </c>
+      <c r="K17">
+        <v>3.65</v>
+      </c>
+      <c r="L17">
+        <v>3.87</v>
+      </c>
+      <c r="M17">
+        <v>4.17</v>
+      </c>
+      <c r="N17">
+        <v>4.81</v>
+      </c>
+      <c r="O17">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18">
+        <v>4.35</v>
+      </c>
+      <c r="C18">
+        <v>4.33</v>
+      </c>
+      <c r="D18">
+        <v>4.26</v>
+      </c>
+      <c r="E18">
+        <v>4.18</v>
+      </c>
+      <c r="F18">
+        <v>4.14</v>
+      </c>
+      <c r="G18">
+        <v>3.96</v>
+      </c>
+      <c r="H18">
+        <v>3.77</v>
+      </c>
+      <c r="I18">
+        <v>3.61</v>
+      </c>
+      <c r="J18">
+        <v>3.58</v>
+      </c>
+      <c r="K18">
+        <v>3.69</v>
+      </c>
+      <c r="L18">
+        <v>3.92</v>
+      </c>
+      <c r="M18">
+        <v>4.22</v>
+      </c>
+      <c r="N18">
+        <v>4.85</v>
+      </c>
+      <c r="O18">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19">
+        <v>4.4</v>
+      </c>
+      <c r="C19">
+        <v>4.35</v>
+      </c>
+      <c r="D19">
+        <v>4.29</v>
+      </c>
+      <c r="E19">
+        <v>4.2</v>
+      </c>
+      <c r="F19">
+        <v>4.15</v>
+      </c>
+      <c r="G19">
+        <v>3.99</v>
+      </c>
+      <c r="H19">
+        <v>3.82</v>
+      </c>
+      <c r="I19">
+        <v>3.66</v>
+      </c>
+      <c r="J19">
+        <v>3.63</v>
+      </c>
+      <c r="K19">
+        <v>3.74</v>
+      </c>
+      <c r="L19">
+        <v>3.98</v>
+      </c>
+      <c r="M19">
+        <v>4.28</v>
+      </c>
+      <c r="N19">
+        <v>4.92</v>
+      </c>
+      <c r="O19">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20">
+        <v>4.41</v>
+      </c>
+      <c r="C20">
+        <v>4.34</v>
+      </c>
+      <c r="D20">
+        <v>4.3</v>
+      </c>
+      <c r="E20">
+        <v>4.23</v>
+      </c>
+      <c r="F20">
+        <v>4.17</v>
+      </c>
+      <c r="G20">
+        <v>4.01</v>
+      </c>
+      <c r="H20">
+        <v>3.83</v>
+      </c>
+      <c r="I20">
+        <v>3.59</v>
+      </c>
+      <c r="J20">
+        <v>3.58</v>
+      </c>
+      <c r="K20">
+        <v>3.68</v>
+      </c>
+      <c r="L20">
+        <v>3.92</v>
+      </c>
+      <c r="M20">
+        <v>4.23</v>
+      </c>
+      <c r="N20">
+        <v>4.86</v>
+      </c>
+      <c r="O20">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21">
+        <v>4.42</v>
+      </c>
+      <c r="C21">
+        <v>4.35</v>
+      </c>
+      <c r="D21">
+        <v>4.31</v>
+      </c>
+      <c r="E21">
+        <v>4.26</v>
+      </c>
+      <c r="F21">
+        <v>4.17</v>
+      </c>
+      <c r="G21">
+        <v>4.04</v>
+      </c>
+      <c r="H21">
+        <v>3.85</v>
+      </c>
+      <c r="I21">
+        <v>3.62</v>
+      </c>
+      <c r="J21">
+        <v>3.6</v>
+      </c>
+      <c r="K21">
+        <v>3.69</v>
+      </c>
+      <c r="L21">
+        <v>3.92</v>
+      </c>
+      <c r="M21">
+        <v>4.22</v>
+      </c>
+      <c r="N21">
+        <v>4.83</v>
+      </c>
+      <c r="O21">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22">
+        <v>4.42</v>
+      </c>
+      <c r="C22">
+        <v>4.36</v>
+      </c>
+      <c r="D22">
+        <v>4.3</v>
+      </c>
+      <c r="E22">
+        <v>4.26</v>
+      </c>
+      <c r="F22">
+        <v>4.18</v>
+      </c>
+      <c r="G22">
+        <v>4.04</v>
+      </c>
+      <c r="H22">
+        <v>3.83</v>
+      </c>
+      <c r="I22">
+        <v>3.59</v>
+      </c>
+      <c r="J22">
+        <v>3.59</v>
+      </c>
+      <c r="K22">
+        <v>3.69</v>
+      </c>
+      <c r="L22">
+        <v>3.95</v>
+      </c>
+      <c r="M22">
+        <v>4.24</v>
+      </c>
+      <c r="N22">
+        <v>4.87</v>
+      </c>
+      <c r="O22">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23">
+        <v>4.42</v>
+      </c>
+      <c r="C23">
+        <v>4.37</v>
+      </c>
+      <c r="D23">
+        <v>4.34</v>
+      </c>
+      <c r="E23">
+        <v>4.28</v>
+      </c>
+      <c r="F23">
+        <v>4.2</v>
+      </c>
+      <c r="G23">
+        <v>4.06</v>
+      </c>
+      <c r="H23">
+        <v>3.85</v>
+      </c>
+      <c r="I23">
+        <v>3.61</v>
+      </c>
+      <c r="J23">
+        <v>3.63</v>
+      </c>
+      <c r="K23">
+        <v>3.75</v>
+      </c>
+      <c r="L23">
+        <v>3.98</v>
+      </c>
+      <c r="M23">
+        <v>4.26</v>
+      </c>
+      <c r="N23">
+        <v>4.86</v>
+      </c>
+      <c r="O23">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24">
+        <v>4.45</v>
+      </c>
+      <c r="C24">
+        <v>4.38</v>
+      </c>
+      <c r="D24">
+        <v>4.35</v>
+      </c>
+      <c r="E24">
+        <v>4.29</v>
+      </c>
+      <c r="F24">
+        <v>4.21</v>
+      </c>
+      <c r="G24">
+        <v>4.08</v>
+      </c>
+      <c r="H24">
+        <v>3.88</v>
+      </c>
+      <c r="I24">
+        <v>3.73</v>
+      </c>
+      <c r="J24">
+        <v>3.68</v>
+      </c>
+      <c r="K24">
+        <v>3.8</v>
+      </c>
+      <c r="L24">
+        <v>4.01</v>
+      </c>
+      <c r="M24">
+        <v>4.28</v>
+      </c>
+      <c r="N24">
+        <v>4.86</v>
+      </c>
+      <c r="O24">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25">
+        <v>4.47</v>
+      </c>
+      <c r="C25">
+        <v>4.38</v>
+      </c>
+      <c r="D25">
+        <v>4.36</v>
+      </c>
+      <c r="E25">
+        <v>4.27</v>
+      </c>
+      <c r="F25">
+        <v>4.21</v>
+      </c>
+      <c r="G25">
+        <v>4.08</v>
+      </c>
+      <c r="H25">
+        <v>3.87</v>
+      </c>
+      <c r="I25">
+        <v>3.68</v>
+      </c>
+      <c r="J25">
+        <v>3.64</v>
+      </c>
+      <c r="K25">
+        <v>3.76</v>
+      </c>
+      <c r="L25">
+        <v>3.98</v>
+      </c>
+      <c r="M25">
+        <v>4.26</v>
+      </c>
+      <c r="N25">
+        <v>4.84</v>
+      </c>
+      <c r="O25">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26">
+        <v>4.49</v>
+      </c>
+      <c r="C26">
+        <v>4.41</v>
+      </c>
+      <c r="D26">
+        <v>4.39</v>
+      </c>
+      <c r="E26">
+        <v>4.32</v>
+      </c>
+      <c r="F26">
+        <v>4.24</v>
+      </c>
+      <c r="G26">
+        <v>4.14</v>
+      </c>
+      <c r="H26">
+        <v>3.95</v>
+      </c>
+      <c r="I26">
+        <v>3.79</v>
+      </c>
+      <c r="J26">
+        <v>3.75</v>
+      </c>
+      <c r="K26">
+        <v>3.86</v>
+      </c>
+      <c r="L26">
+        <v>4.07</v>
+      </c>
+      <c r="M26">
+        <v>4.33</v>
+      </c>
+      <c r="N26">
+        <v>4.89</v>
+      </c>
+      <c r="O26">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27">
+        <v>4.45</v>
+      </c>
+      <c r="C27">
+        <v>4.4</v>
+      </c>
+      <c r="D27">
+        <v>4.35</v>
+      </c>
+      <c r="E27">
+        <v>4.3</v>
+      </c>
+      <c r="F27">
+        <v>4.22</v>
+      </c>
+      <c r="G27">
+        <v>4.11</v>
+      </c>
+      <c r="H27">
+        <v>3.9</v>
+      </c>
+      <c r="I27">
+        <v>3.74</v>
+      </c>
+      <c r="J27">
+        <v>3.69</v>
+      </c>
+      <c r="K27">
+        <v>3.81</v>
+      </c>
+      <c r="L27">
+        <v>4.02</v>
+      </c>
+      <c r="M27">
+        <v>4.29</v>
+      </c>
+      <c r="N27">
+        <v>4.86</v>
+      </c>
+      <c r="O27">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28">
+        <v>4.46</v>
+      </c>
+      <c r="C28">
+        <v>4.4</v>
+      </c>
+      <c r="D28">
+        <v>4.35</v>
+      </c>
+      <c r="E28">
+        <v>4.3</v>
+      </c>
+      <c r="F28">
+        <v>4.21</v>
+      </c>
+      <c r="G28">
+        <v>4.11</v>
+      </c>
+      <c r="H28">
+        <v>3.91</v>
+      </c>
+      <c r="I28">
+        <v>3.75</v>
+      </c>
+      <c r="J28">
+        <v>3.7</v>
+      </c>
+      <c r="K28">
+        <v>3.82</v>
+      </c>
+      <c r="L28">
+        <v>4.04</v>
+      </c>
+      <c r="M28">
+        <v>4.3</v>
+      </c>
+      <c r="N28">
+        <v>4.89</v>
+      </c>
+      <c r="O28">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B29">
+        <v>4.47</v>
+      </c>
+      <c r="C29">
+        <v>4.4</v>
+      </c>
+      <c r="D29">
+        <v>4.35</v>
+      </c>
+      <c r="E29">
+        <v>4.33</v>
+      </c>
+      <c r="F29">
+        <v>4.22</v>
+      </c>
+      <c r="G29">
+        <v>4.13</v>
+      </c>
+      <c r="H29">
+        <v>3.93</v>
+      </c>
+      <c r="I29">
+        <v>3.77</v>
+      </c>
+      <c r="J29">
+        <v>3.73</v>
+      </c>
+      <c r="K29">
+        <v>3.86</v>
+      </c>
+      <c r="L29">
+        <v>4.07</v>
+      </c>
+      <c r="M29">
+        <v>4.34</v>
+      </c>
+      <c r="N29">
+        <v>4.92</v>
+      </c>
+      <c r="O29">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B30">
+        <v>4.48</v>
+      </c>
+      <c r="C30">
+        <v>4.42</v>
+      </c>
+      <c r="D30">
+        <v>4.35</v>
+      </c>
+      <c r="E30">
+        <v>4.3</v>
+      </c>
+      <c r="F30">
+        <v>4.22</v>
+      </c>
+      <c r="G30">
+        <v>4.12</v>
+      </c>
+      <c r="H30">
+        <v>3.93</v>
+      </c>
+      <c r="I30">
+        <v>3.75</v>
+      </c>
+      <c r="J30">
+        <v>3.73</v>
+      </c>
+      <c r="K30">
+        <v>3.85</v>
+      </c>
+      <c r="L30">
+        <v>4.07</v>
+      </c>
+      <c r="M30">
+        <v>4.33</v>
+      </c>
+      <c r="N30">
+        <v>4.91</v>
+      </c>
+      <c r="O30">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31">
+        <v>4.48</v>
+      </c>
+      <c r="C31">
+        <v>4.43</v>
+      </c>
+      <c r="D31">
+        <v>4.36</v>
+      </c>
+      <c r="E31">
+        <v>4.3</v>
+      </c>
+      <c r="F31">
+        <v>4.22</v>
+      </c>
+      <c r="G31">
+        <v>4.12</v>
+      </c>
+      <c r="H31">
+        <v>3.91</v>
+      </c>
+      <c r="I31">
+        <v>3.74</v>
+      </c>
+      <c r="J31">
+        <v>3.7</v>
+      </c>
+      <c r="K31">
+        <v>3.82</v>
+      </c>
+      <c r="L31">
+        <v>4.03</v>
+      </c>
+      <c r="M31">
+        <v>4.29</v>
+      </c>
+      <c r="N31">
+        <v>4.86</v>
+      </c>
+      <c r="O31">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32">
+        <v>4.44</v>
+      </c>
+      <c r="C32">
+        <v>4.42</v>
+      </c>
+      <c r="D32">
+        <v>4.32</v>
+      </c>
+      <c r="E32">
+        <v>4.29</v>
+      </c>
+      <c r="F32">
+        <v>4.21</v>
+      </c>
+      <c r="G32">
+        <v>4.09</v>
+      </c>
+      <c r="H32">
+        <v>3.86</v>
+      </c>
+      <c r="I32">
+        <v>3.67</v>
+      </c>
+      <c r="J32">
+        <v>3.64</v>
+      </c>
+      <c r="K32">
+        <v>3.77</v>
+      </c>
+      <c r="L32">
+        <v>3.98</v>
+      </c>
+      <c r="M32">
+        <v>4.24</v>
+      </c>
+      <c r="N32">
+        <v>4.81</v>
+      </c>
+      <c r="O32">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33">
+        <v>4.44</v>
+      </c>
+      <c r="C33">
+        <v>4.44</v>
+      </c>
+      <c r="D33">
+        <v>4.35</v>
+      </c>
+      <c r="E33">
+        <v>4.33</v>
+      </c>
+      <c r="F33">
+        <v>4.25</v>
+      </c>
+      <c r="G33">
+        <v>4.12</v>
+      </c>
+      <c r="H33">
+        <v>3.9</v>
+      </c>
+      <c r="I33">
+        <v>3.72</v>
+      </c>
+      <c r="J33">
+        <v>3.69</v>
+      </c>
+      <c r="K33">
+        <v>3.83</v>
+      </c>
+      <c r="L33">
+        <v>4.03</v>
+      </c>
+      <c r="M33">
+        <v>4.29</v>
+      </c>
+      <c r="N33">
+        <v>4.87</v>
+      </c>
+      <c r="O33">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B34">
+        <v>4.46</v>
+      </c>
+      <c r="C34">
+        <v>4.41</v>
+      </c>
+      <c r="D34">
+        <v>4.38</v>
+      </c>
+      <c r="E34">
+        <v>4.34</v>
+      </c>
+      <c r="F34">
+        <v>4.27</v>
+      </c>
+      <c r="G34">
+        <v>4.15</v>
+      </c>
+      <c r="H34">
+        <v>3.93</v>
+      </c>
+      <c r="I34">
+        <v>3.76</v>
+      </c>
+      <c r="J34">
+        <v>3.71</v>
+      </c>
+      <c r="K34">
+        <v>3.83</v>
+      </c>
+      <c r="L34">
+        <v>4.03</v>
+      </c>
+      <c r="M34">
+        <v>4.27</v>
+      </c>
+      <c r="N34">
+        <v>4.83</v>
+      </c>
+      <c r="O34">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35">
+        <v>4.48</v>
+      </c>
+      <c r="C35">
+        <v>4.43</v>
+      </c>
+      <c r="D35">
+        <v>4.39</v>
+      </c>
+      <c r="E35">
+        <v>4.32</v>
+      </c>
+      <c r="F35">
+        <v>4.27</v>
+      </c>
+      <c r="G35">
+        <v>4.15</v>
+      </c>
+      <c r="H35">
+        <v>3.93</v>
+      </c>
+      <c r="I35">
+        <v>3.76</v>
+      </c>
+      <c r="J35">
+        <v>3.7</v>
+      </c>
+      <c r="K35">
+        <v>3.84</v>
+      </c>
+      <c r="L35">
+        <v>4.03</v>
+      </c>
+      <c r="M35">
+        <v>4.27</v>
+      </c>
+      <c r="N35">
+        <v>4.84</v>
+      </c>
+      <c r="O35">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B36">
+        <v>4.49</v>
+      </c>
+      <c r="C36">
+        <v>4.46</v>
+      </c>
+      <c r="D36">
+        <v>4.41</v>
+      </c>
+      <c r="E36">
+        <v>4.32</v>
+      </c>
+      <c r="F36">
+        <v>4.27</v>
+      </c>
+      <c r="G36">
+        <v>4.15</v>
+      </c>
+      <c r="H36">
+        <v>3.92</v>
+      </c>
+      <c r="I36">
+        <v>3.72</v>
+      </c>
+      <c r="J36">
+        <v>3.66</v>
+      </c>
+      <c r="K36">
+        <v>3.79</v>
+      </c>
+      <c r="L36">
+        <v>3.99</v>
+      </c>
+      <c r="M36">
+        <v>4.23</v>
+      </c>
+      <c r="N36">
+        <v>4.81</v>
+      </c>
+      <c r="O36">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B37">
+        <v>4.48</v>
+      </c>
+      <c r="C37">
+        <v>4.47</v>
+      </c>
+      <c r="D37">
+        <v>4.4</v>
+      </c>
+      <c r="E37">
+        <v>4.32</v>
+      </c>
+      <c r="F37">
+        <v>4.27</v>
+      </c>
+      <c r="G37">
+        <v>4.15</v>
+      </c>
+      <c r="H37">
+        <v>3.9</v>
+      </c>
+      <c r="I37">
+        <v>3.69</v>
+      </c>
+      <c r="J37">
+        <v>3.63</v>
+      </c>
+      <c r="K37">
+        <v>3.77</v>
+      </c>
+      <c r="L37">
+        <v>3.97</v>
+      </c>
+      <c r="M37">
+        <v>4.22</v>
+      </c>
+      <c r="N37">
+        <v>4.8</v>
+      </c>
+      <c r="O37">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38">
+        <v>4.49</v>
+      </c>
+      <c r="C38">
+        <v>4.48</v>
+      </c>
+      <c r="D38">
+        <v>4.41</v>
+      </c>
+      <c r="E38">
+        <v>4.34</v>
+      </c>
+      <c r="F38">
+        <v>4.29</v>
+      </c>
+      <c r="G38">
+        <v>4.16</v>
+      </c>
+      <c r="H38">
+        <v>3.92</v>
+      </c>
+      <c r="I38">
+        <v>3.72</v>
+      </c>
+      <c r="J38">
+        <v>3.63</v>
+      </c>
+      <c r="K38">
+        <v>3.77</v>
+      </c>
+      <c r="L38">
+        <v>3.97</v>
+      </c>
+      <c r="M38">
+        <v>4.22</v>
+      </c>
+      <c r="N38">
+        <v>4.77</v>
+      </c>
+      <c r="O38">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B39">
+        <v>4.48</v>
+      </c>
+      <c r="C39">
+        <v>4.46</v>
+      </c>
+      <c r="D39">
+        <v>4.43</v>
+      </c>
+      <c r="E39">
+        <v>4.35</v>
+      </c>
+      <c r="F39">
+        <v>4.28</v>
+      </c>
+      <c r="G39">
+        <v>4.15</v>
+      </c>
+      <c r="H39">
+        <v>3.82</v>
+      </c>
+      <c r="I39">
+        <v>3.69</v>
+      </c>
+      <c r="J39">
+        <v>3.66</v>
+      </c>
+      <c r="K39">
+        <v>3.75</v>
+      </c>
+      <c r="L39">
+        <v>3.95</v>
+      </c>
+      <c r="M39">
+        <v>4.22</v>
+      </c>
+      <c r="N39">
+        <v>4.78</v>
+      </c>
+      <c r="O39">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B40">
+        <v>4.49</v>
+      </c>
+      <c r="C40">
+        <v>4.46</v>
+      </c>
+      <c r="D40">
+        <v>4.44</v>
+      </c>
+      <c r="E40">
+        <v>4.35</v>
+      </c>
+      <c r="F40">
+        <v>4.3</v>
+      </c>
+      <c r="G40">
+        <v>4.16</v>
+      </c>
+      <c r="H40">
+        <v>3.87</v>
+      </c>
+      <c r="I40">
+        <v>3.69</v>
+      </c>
+      <c r="J40">
+        <v>3.67</v>
+      </c>
+      <c r="K40">
+        <v>3.77</v>
+      </c>
+      <c r="L40">
+        <v>3.97</v>
+      </c>
+      <c r="M40">
+        <v>4.23</v>
+      </c>
+      <c r="N40">
+        <v>4.79</v>
+      </c>
+      <c r="O40">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B41">
+        <v>4.49</v>
+      </c>
+      <c r="C41">
+        <v>4.47</v>
+      </c>
+      <c r="D41">
+        <v>4.46</v>
+      </c>
+      <c r="E41">
+        <v>4.41</v>
+      </c>
+      <c r="F41">
+        <v>4.4</v>
+      </c>
+      <c r="G41">
+        <v>4.31</v>
+      </c>
+      <c r="H41">
+        <v>4.1</v>
+      </c>
+      <c r="I41">
+        <v>3.94</v>
+      </c>
+      <c r="J41">
+        <v>3.89</v>
+      </c>
+      <c r="K41">
+        <v>3.96</v>
+      </c>
+      <c r="L41">
+        <v>4.14</v>
+      </c>
+      <c r="M41">
+        <v>4.37</v>
+      </c>
+      <c r="N41">
+        <v>4.89</v>
+      </c>
+      <c r="O41">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B42">
+        <v>4.41</v>
+      </c>
+      <c r="C42">
+        <v>4.48</v>
+      </c>
+      <c r="D42">
+        <v>4.45</v>
+      </c>
+      <c r="E42">
+        <v>4.41</v>
+      </c>
+      <c r="F42">
+        <v>4.39</v>
+      </c>
+      <c r="G42">
+        <v>4.31</v>
+      </c>
+      <c r="H42">
+        <v>4.12</v>
+      </c>
+      <c r="I42">
+        <v>3.94</v>
+      </c>
+      <c r="J42">
+        <v>3.89</v>
+      </c>
+      <c r="K42">
+        <v>3.96</v>
+      </c>
+      <c r="L42">
+        <v>4.15</v>
+      </c>
+      <c r="M42">
+        <v>4.38</v>
+      </c>
+      <c r="N42">
+        <v>4.9</v>
+      </c>
+      <c r="O42">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43">
+        <v>4.4</v>
+      </c>
+      <c r="C43">
+        <v>4.47</v>
+      </c>
+      <c r="D43">
+        <v>4.45</v>
+      </c>
+      <c r="E43">
+        <v>4.4</v>
+      </c>
+      <c r="F43">
+        <v>4.41</v>
+      </c>
+      <c r="G43">
+        <v>4.28</v>
+      </c>
+      <c r="H43">
+        <v>4.07</v>
+      </c>
+      <c r="I43">
+        <v>3.86</v>
+      </c>
+      <c r="J43">
+        <v>3.82</v>
+      </c>
+      <c r="K43">
+        <v>3.9</v>
+      </c>
+      <c r="L43">
+        <v>4.1</v>
+      </c>
+      <c r="M43">
+        <v>4.34</v>
+      </c>
+      <c r="N43">
+        <v>4.86</v>
+      </c>
+      <c r="O43">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44">
+        <v>4.4</v>
+      </c>
+      <c r="C44">
+        <v>4.47</v>
+      </c>
+      <c r="D44">
+        <v>4.45</v>
+      </c>
+      <c r="E44">
+        <v>4.4</v>
+      </c>
+      <c r="F44">
+        <v>4.42</v>
+      </c>
+      <c r="G44">
+        <v>4.3</v>
+      </c>
+      <c r="H44">
+        <v>4.09</v>
+      </c>
+      <c r="I44">
+        <v>3.91</v>
+      </c>
+      <c r="J44">
+        <v>3.87</v>
+      </c>
+      <c r="K44">
+        <v>3.96</v>
+      </c>
+      <c r="L44">
+        <v>4.18</v>
+      </c>
+      <c r="M44">
+        <v>4.42</v>
+      </c>
+      <c r="N44">
+        <v>4.95</v>
+      </c>
+      <c r="O44">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45">
+        <v>4.37</v>
+      </c>
+      <c r="C45">
+        <v>4.46</v>
+      </c>
+      <c r="D45">
+        <v>4.46</v>
+      </c>
+      <c r="E45">
+        <v>4.42</v>
+      </c>
+      <c r="F45">
+        <v>4.42</v>
+      </c>
+      <c r="G45">
+        <v>4.31</v>
+      </c>
+      <c r="H45">
+        <v>4.09</v>
+      </c>
+      <c r="I45">
+        <v>3.91</v>
+      </c>
+      <c r="J45">
+        <v>3.86</v>
+      </c>
+      <c r="K45">
+        <v>3.95</v>
+      </c>
+      <c r="L45">
+        <v>4.15</v>
+      </c>
+      <c r="M45">
+        <v>4.4</v>
+      </c>
+      <c r="N45">
+        <v>4.92</v>
+      </c>
+      <c r="O45">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B46">
+        <v>4.37</v>
+      </c>
+      <c r="C46">
+        <v>4.47</v>
+      </c>
+      <c r="D46">
+        <v>4.46</v>
+      </c>
+      <c r="E46">
+        <v>4.42</v>
+      </c>
+      <c r="F46">
+        <v>4.42</v>
+      </c>
+      <c r="G46">
+        <v>4.32</v>
+      </c>
+      <c r="H46">
+        <v>4.1</v>
+      </c>
+      <c r="I46">
+        <v>3.91</v>
+      </c>
+      <c r="J46">
+        <v>3.87</v>
+      </c>
+      <c r="K46">
+        <v>3.98</v>
+      </c>
+      <c r="L46">
+        <v>4.18</v>
+      </c>
+      <c r="M46">
+        <v>4.43</v>
+      </c>
+      <c r="N46">
+        <v>4.95</v>
+      </c>
+      <c r="O46">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47">
+        <v>4.37</v>
+      </c>
+      <c r="C47">
+        <v>4.46</v>
+      </c>
+      <c r="D47">
+        <v>4.45</v>
+      </c>
+      <c r="E47">
+        <v>4.41</v>
+      </c>
+      <c r="F47">
+        <v>4.42</v>
+      </c>
+      <c r="G47">
+        <v>4.31</v>
+      </c>
+      <c r="H47">
+        <v>4.08</v>
+      </c>
+      <c r="I47">
+        <v>3.88</v>
+      </c>
+      <c r="J47">
+        <v>3.84</v>
+      </c>
+      <c r="K47">
+        <v>3.94</v>
+      </c>
+      <c r="L47">
+        <v>4.15</v>
+      </c>
+      <c r="M47">
+        <v>4.4</v>
+      </c>
+      <c r="N47">
+        <v>4.93</v>
+      </c>
+      <c r="O47">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48">
+        <v>4.37</v>
+      </c>
+      <c r="C48">
+        <v>4.46</v>
+      </c>
+      <c r="D48">
+        <v>4.45</v>
+      </c>
+      <c r="E48">
+        <v>4.41</v>
+      </c>
+      <c r="F48">
+        <v>4.42</v>
+      </c>
+      <c r="G48">
+        <v>4.3</v>
+      </c>
+      <c r="H48">
+        <v>4.05</v>
+      </c>
+      <c r="I48">
+        <v>3.83</v>
+      </c>
+      <c r="J48">
+        <v>3.77</v>
+      </c>
+      <c r="K48">
+        <v>3.88</v>
+      </c>
+      <c r="L48">
+        <v>4.09</v>
+      </c>
+      <c r="M48">
+        <v>4.35</v>
+      </c>
+      <c r="N48">
+        <v>4.9</v>
+      </c>
+      <c r="O48">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49">
+        <v>4.35</v>
+      </c>
+      <c r="C49">
+        <v>4.41</v>
+      </c>
+      <c r="D49">
+        <v>4.46</v>
+      </c>
+      <c r="E49">
+        <v>4.41</v>
+      </c>
+      <c r="F49">
+        <v>4.42</v>
+      </c>
+      <c r="G49">
+        <v>4.3</v>
+      </c>
+      <c r="H49">
+        <v>4.06</v>
+      </c>
+      <c r="I49">
+        <v>3.85</v>
+      </c>
+      <c r="J49">
+        <v>3.81</v>
+      </c>
+      <c r="K49">
+        <v>3.91</v>
+      </c>
+      <c r="L49">
+        <v>4.13</v>
+      </c>
+      <c r="M49">
+        <v>4.38</v>
+      </c>
+      <c r="N49">
+        <v>4.93</v>
+      </c>
+      <c r="O49">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50">
+        <v>4.35</v>
+      </c>
+      <c r="C50">
+        <v>4.39</v>
+      </c>
+      <c r="D50">
+        <v>4.46</v>
+      </c>
+      <c r="E50">
+        <v>4.4</v>
+      </c>
+      <c r="F50">
+        <v>4.42</v>
+      </c>
+      <c r="G50">
+        <v>4.3</v>
+      </c>
+      <c r="H50">
+        <v>4.08</v>
+      </c>
+      <c r="I50">
+        <v>3.88</v>
+      </c>
+      <c r="J50">
+        <v>3.84</v>
+      </c>
+      <c r="K50">
+        <v>3.96</v>
+      </c>
+      <c r="L50">
+        <v>4.18</v>
+      </c>
+      <c r="M50">
+        <v>4.44</v>
+      </c>
+      <c r="N50">
+        <v>4.99</v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51">
+        <v>4.36</v>
+      </c>
+      <c r="C51">
+        <v>4.39</v>
+      </c>
+      <c r="D51">
+        <v>4.47</v>
+      </c>
+      <c r="E51">
+        <v>4.41</v>
+      </c>
+      <c r="F51">
+        <v>4.42</v>
+      </c>
+      <c r="G51">
+        <v>4.31</v>
+      </c>
+      <c r="H51">
+        <v>4.1</v>
+      </c>
+      <c r="I51">
+        <v>3.91</v>
+      </c>
+      <c r="J51">
+        <v>3.89</v>
+      </c>
+      <c r="K51">
+        <v>4.01</v>
+      </c>
+      <c r="L51">
+        <v>4.22</v>
+      </c>
+      <c r="M51">
+        <v>4.47</v>
+      </c>
+      <c r="N51">
+        <v>5.01</v>
+      </c>
+      <c r="O51">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B52">
+        <v>4.36</v>
+      </c>
+      <c r="C52">
+        <v>4.4</v>
+      </c>
+      <c r="D52">
+        <v>4.45</v>
+      </c>
+      <c r="E52">
+        <v>4.41</v>
+      </c>
+      <c r="F52">
+        <v>4.42</v>
+      </c>
+      <c r="G52">
+        <v>4.31</v>
+      </c>
+      <c r="H52">
+        <v>4.08</v>
+      </c>
+      <c r="I52">
+        <v>3.88</v>
+      </c>
+      <c r="J52">
+        <v>3.86</v>
+      </c>
+      <c r="K52">
+        <v>3.99</v>
+      </c>
+      <c r="L52">
+        <v>4.21</v>
+      </c>
+      <c r="M52">
+        <v>4.46</v>
+      </c>
+      <c r="N52">
+        <v>5.01</v>
+      </c>
+      <c r="O52">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53">
+        <v>4.36</v>
+      </c>
+      <c r="C53">
+        <v>4.4</v>
+      </c>
+      <c r="D53">
+        <v>4.46</v>
+      </c>
+      <c r="E53">
+        <v>4.42</v>
+      </c>
+      <c r="F53">
+        <v>4.43</v>
+      </c>
+      <c r="G53">
+        <v>4.33</v>
+      </c>
+      <c r="H53">
+        <v>4.12</v>
+      </c>
+      <c r="I53">
+        <v>3.95</v>
+      </c>
+      <c r="J53">
+        <v>3.93</v>
+      </c>
+      <c r="K53">
+        <v>4.05</v>
+      </c>
+      <c r="L53">
+        <v>4.26</v>
+      </c>
+      <c r="M53">
+        <v>4.5</v>
+      </c>
+      <c r="N53">
+        <v>5.02</v>
+      </c>
+      <c r="O53">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B54">
+        <v>4.37</v>
+      </c>
+      <c r="C54">
+        <v>4.41</v>
+      </c>
+      <c r="D54">
+        <v>4.46</v>
+      </c>
+      <c r="E54">
+        <v>4.42</v>
+      </c>
+      <c r="F54">
+        <v>4.42</v>
+      </c>
+      <c r="G54">
+        <v>4.31</v>
+      </c>
+      <c r="H54">
+        <v>4.08</v>
+      </c>
+      <c r="I54">
+        <v>3.9</v>
+      </c>
+      <c r="J54">
+        <v>3.86</v>
+      </c>
+      <c r="K54">
+        <v>3.98</v>
+      </c>
+      <c r="L54">
+        <v>4.19</v>
+      </c>
+      <c r="M54">
+        <v>4.43</v>
+      </c>
+      <c r="N54">
+        <v>4.97</v>
+      </c>
+      <c r="O54">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B55">
+        <v>4.37</v>
+      </c>
+      <c r="C55">
+        <v>4.39</v>
+      </c>
+      <c r="D55">
+        <v>4.47</v>
+      </c>
+      <c r="E55">
+        <v>4.41</v>
+      </c>
+      <c r="F55">
+        <v>4.42</v>
+      </c>
+      <c r="G55">
+        <v>4.31</v>
+      </c>
+      <c r="H55">
+        <v>4.09</v>
+      </c>
+      <c r="I55">
+        <v>3.9</v>
+      </c>
+      <c r="J55">
+        <v>3.86</v>
+      </c>
+      <c r="K55">
+        <v>3.99</v>
+      </c>
+      <c r="L55">
+        <v>4.19</v>
+      </c>
+      <c r="M55">
+        <v>4.43</v>
+      </c>
+      <c r="N55">
+        <v>4.96</v>
+      </c>
+      <c r="O55">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B56">
+        <v>4.36</v>
+      </c>
+      <c r="C56">
+        <v>4.39</v>
+      </c>
+      <c r="D56">
+        <v>4.47</v>
+      </c>
+      <c r="E56">
+        <v>4.42</v>
+      </c>
+      <c r="F56">
+        <v>4.42</v>
+      </c>
+      <c r="G56">
+        <v>4.31</v>
+      </c>
+      <c r="H56">
+        <v>4.07</v>
+      </c>
+      <c r="I56">
+        <v>3.86</v>
+      </c>
+      <c r="J56">
+        <v>3.82</v>
+      </c>
+      <c r="K56">
+        <v>3.93</v>
+      </c>
+      <c r="L56">
+        <v>4.12</v>
+      </c>
+      <c r="M56">
+        <v>4.35</v>
+      </c>
+      <c r="N56">
+        <v>4.87</v>
+      </c>
+      <c r="O56">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B57">
+        <v>4.36</v>
+      </c>
+      <c r="C57">
+        <v>4.4</v>
+      </c>
+      <c r="D57">
+        <v>4.45</v>
+      </c>
+      <c r="E57">
+        <v>4.42</v>
+      </c>
+      <c r="F57">
+        <v>4.42</v>
+      </c>
+      <c r="G57">
+        <v>4.31</v>
+      </c>
+      <c r="H57">
+        <v>4.07</v>
+      </c>
+      <c r="I57">
+        <v>3.86</v>
+      </c>
+      <c r="J57">
+        <v>3.8</v>
+      </c>
+      <c r="K57">
+        <v>3.92</v>
+      </c>
+      <c r="L57">
+        <v>4.11</v>
+      </c>
+      <c r="M57">
+        <v>4.34</v>
+      </c>
+      <c r="N57">
+        <v>4.87</v>
+      </c>
+      <c r="O57">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58">
+        <v>4.36</v>
+      </c>
+      <c r="C58">
+        <v>4.41</v>
+      </c>
+      <c r="D58">
+        <v>4.46</v>
+      </c>
+      <c r="E58">
+        <v>4.42</v>
+      </c>
+      <c r="F58">
+        <v>4.42</v>
+      </c>
+      <c r="G58">
+        <v>4.34</v>
+      </c>
+      <c r="H58">
+        <v>4.11</v>
+      </c>
+      <c r="I58">
+        <v>3.9</v>
+      </c>
+      <c r="J58">
+        <v>3.86</v>
+      </c>
+      <c r="K58">
+        <v>3.99</v>
+      </c>
+      <c r="L58">
+        <v>4.18</v>
+      </c>
+      <c r="M58">
+        <v>4.42</v>
+      </c>
+      <c r="N58">
+        <v>4.95</v>
+      </c>
+      <c r="O58">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B59">
+        <v>4.37</v>
+      </c>
+      <c r="C59">
+        <v>4.43</v>
+      </c>
+      <c r="D59">
+        <v>4.45</v>
+      </c>
+      <c r="E59">
+        <v>4.42</v>
+      </c>
+      <c r="F59">
+        <v>4.41</v>
+      </c>
+      <c r="G59">
+        <v>4.33</v>
+      </c>
+      <c r="H59">
+        <v>4.08</v>
+      </c>
+      <c r="I59">
+        <v>3.9</v>
+      </c>
+      <c r="J59">
+        <v>3.85</v>
+      </c>
+      <c r="K59">
+        <v>3.96</v>
+      </c>
+      <c r="L59">
+        <v>4.16</v>
+      </c>
+      <c r="M59">
+        <v>4.4</v>
+      </c>
+      <c r="N59">
+        <v>4.93</v>
+      </c>
+      <c r="O59">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B60">
+        <v>4.35</v>
+      </c>
+      <c r="C60">
+        <v>4.43</v>
+      </c>
+      <c r="D60">
+        <v>4.5</v>
+      </c>
+      <c r="E60">
+        <v>4.42</v>
+      </c>
+      <c r="F60">
+        <v>4.41</v>
+      </c>
+      <c r="G60">
+        <v>4.34</v>
+      </c>
+      <c r="H60">
+        <v>4.07</v>
+      </c>
+      <c r="I60">
+        <v>3.88</v>
+      </c>
+      <c r="J60">
+        <v>3.84</v>
+      </c>
+      <c r="K60">
+        <v>3.94</v>
+      </c>
+      <c r="L60">
+        <v>4.12</v>
+      </c>
+      <c r="M60">
+        <v>4.35</v>
+      </c>
+      <c r="N60">
+        <v>4.87</v>
+      </c>
+      <c r="O60">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B61">
+        <v>4.33</v>
+      </c>
+      <c r="C61">
+        <v>4.44</v>
+      </c>
+      <c r="D61">
+        <v>4.43</v>
+      </c>
+      <c r="E61">
+        <v>4.41</v>
+      </c>
+      <c r="F61">
+        <v>4.37</v>
+      </c>
+      <c r="G61">
+        <v>4.28</v>
+      </c>
+      <c r="H61">
+        <v>3.99</v>
+      </c>
+      <c r="I61">
+        <v>3.78</v>
+      </c>
+      <c r="J61">
+        <v>3.77</v>
+      </c>
+      <c r="K61">
+        <v>3.87</v>
+      </c>
+      <c r="L61">
+        <v>4.06</v>
+      </c>
+      <c r="M61">
+        <v>4.3</v>
+      </c>
+      <c r="N61">
+        <v>4.84</v>
+      </c>
+      <c r="O61">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B62">
+        <v>4.32</v>
+      </c>
+      <c r="C62">
+        <v>4.44</v>
+      </c>
+      <c r="D62">
+        <v>4.42</v>
+      </c>
+      <c r="E62">
+        <v>4.4</v>
+      </c>
+      <c r="F62">
+        <v>4.35</v>
+      </c>
+      <c r="G62">
+        <v>4.29</v>
+      </c>
+      <c r="H62">
+        <v>3.98</v>
+      </c>
+      <c r="I62">
+        <v>3.78</v>
+      </c>
+      <c r="J62">
+        <v>3.75</v>
+      </c>
+      <c r="K62">
+        <v>3.84</v>
+      </c>
+      <c r="L62">
+        <v>4.03</v>
+      </c>
+      <c r="M62">
+        <v>4.26</v>
+      </c>
+      <c r="N62">
+        <v>4.79</v>
+      </c>
+      <c r="O62">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B63">
+        <v>4.28</v>
+      </c>
+      <c r="C63">
+        <v>4.41</v>
+      </c>
+      <c r="D63">
+        <v>4.45</v>
+      </c>
+      <c r="E63">
+        <v>4.41</v>
+      </c>
+      <c r="F63">
+        <v>4.36</v>
+      </c>
+      <c r="G63">
+        <v>4.29</v>
+      </c>
+      <c r="H63">
+        <v>3.96</v>
+      </c>
+      <c r="I63">
+        <v>3.72</v>
+      </c>
+      <c r="J63">
+        <v>3.68</v>
+      </c>
+      <c r="K63">
+        <v>3.79</v>
+      </c>
+      <c r="L63">
+        <v>3.98</v>
+      </c>
+      <c r="M63">
+        <v>4.24</v>
+      </c>
+      <c r="N63">
+        <v>4.79</v>
+      </c>
+      <c r="O63">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B64">
+        <v>4.19</v>
+      </c>
+      <c r="C64">
+        <v>4.43</v>
+      </c>
+      <c r="D64">
+        <v>4.49</v>
+      </c>
+      <c r="E64">
+        <v>4.39</v>
+      </c>
+      <c r="F64">
+        <v>4.36</v>
+      </c>
+      <c r="G64">
+        <v>4.26</v>
+      </c>
+      <c r="H64">
+        <v>3.97</v>
+      </c>
+      <c r="I64">
+        <v>3.73</v>
+      </c>
+      <c r="J64">
+        <v>3.72</v>
+      </c>
+      <c r="K64">
+        <v>3.83</v>
+      </c>
+      <c r="L64">
+        <v>4.03</v>
+      </c>
+      <c r="M64">
+        <v>4.29</v>
+      </c>
+      <c r="N64">
+        <v>4.85</v>
+      </c>
+      <c r="O64">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B65">
+        <v>4.11</v>
+      </c>
+      <c r="C65">
+        <v>4.47</v>
+      </c>
+      <c r="D65">
+        <v>4.49</v>
+      </c>
+      <c r="E65">
+        <v>4.39</v>
+      </c>
+      <c r="F65">
+        <v>4.36</v>
+      </c>
+      <c r="G65">
+        <v>4.26</v>
+      </c>
+      <c r="H65">
+        <v>3.96</v>
+      </c>
+      <c r="I65">
+        <v>3.7</v>
+      </c>
+      <c r="J65">
+        <v>3.68</v>
+      </c>
+      <c r="K65">
+        <v>3.79</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>4.26</v>
+      </c>
+      <c r="N65">
+        <v>4.81</v>
+      </c>
+      <c r="O65">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B66">
+        <v>4.21</v>
+      </c>
+      <c r="C66">
+        <v>4.46</v>
+      </c>
+      <c r="D66">
+        <v>4.43</v>
+      </c>
+      <c r="E66">
+        <v>4.38</v>
+      </c>
+      <c r="F66">
+        <v>4.36</v>
+      </c>
+      <c r="G66">
+        <v>4.26</v>
+      </c>
+      <c r="H66">
+        <v>3.99</v>
+      </c>
+      <c r="I66">
+        <v>3.74</v>
+      </c>
+      <c r="J66">
+        <v>3.74</v>
+      </c>
+      <c r="K66">
+        <v>3.83</v>
+      </c>
+      <c r="L66">
+        <v>4.05</v>
+      </c>
+      <c r="M66">
+        <v>4.29</v>
+      </c>
+      <c r="N66">
+        <v>4.83</v>
+      </c>
+      <c r="O66">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B67">
+        <v>4.21</v>
+      </c>
+      <c r="C67">
+        <v>4.53</v>
+      </c>
+      <c r="D67">
+        <v>4.44</v>
+      </c>
+      <c r="E67">
+        <v>4.38</v>
+      </c>
+      <c r="F67">
+        <v>4.37</v>
+      </c>
+      <c r="G67">
+        <v>4.27</v>
+      </c>
+      <c r="H67">
+        <v>3.99</v>
+      </c>
+      <c r="I67">
+        <v>3.75</v>
+      </c>
+      <c r="J67">
+        <v>3.75</v>
+      </c>
+      <c r="K67">
+        <v>3.86</v>
+      </c>
+      <c r="L67">
+        <v>4.06</v>
+      </c>
+      <c r="M67">
+        <v>4.3</v>
+      </c>
+      <c r="N67">
+        <v>4.83</v>
+      </c>
+      <c r="O67">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B68">
+        <v>4.2</v>
+      </c>
+      <c r="C68">
+        <v>4.4</v>
+      </c>
+      <c r="D68">
+        <v>4.52</v>
+      </c>
+      <c r="E68">
+        <v>4.38</v>
+      </c>
+      <c r="F68">
+        <v>4.37</v>
+      </c>
+      <c r="G68">
+        <v>4.28</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>3.84</v>
+      </c>
+      <c r="J68">
+        <v>3.8</v>
+      </c>
+      <c r="K68">
+        <v>3.91</v>
+      </c>
+      <c r="L68">
+        <v>4.1</v>
+      </c>
+      <c r="M68">
+        <v>4.34</v>
+      </c>
+      <c r="N68">
+        <v>4.87</v>
+      </c>
+      <c r="O68">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B69">
+        <v>4.2</v>
+      </c>
+      <c r="C69">
+        <v>4.38</v>
+      </c>
+      <c r="D69">
+        <v>4.55</v>
+      </c>
+      <c r="E69">
+        <v>4.39</v>
+      </c>
+      <c r="F69">
+        <v>4.4</v>
+      </c>
+      <c r="G69">
+        <v>4.29</v>
+      </c>
+      <c r="H69">
+        <v>4.07</v>
+      </c>
+      <c r="I69">
+        <v>3.9</v>
+      </c>
+      <c r="J69">
+        <v>3.86</v>
+      </c>
+      <c r="K69">
+        <v>3.96</v>
+      </c>
+      <c r="L69">
+        <v>4.16</v>
+      </c>
+      <c r="M69">
+        <v>4.38</v>
+      </c>
+      <c r="N69">
+        <v>4.9</v>
+      </c>
+      <c r="O69">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B70">
+        <v>4.2</v>
+      </c>
+      <c r="C70">
+        <v>4.36</v>
+      </c>
+      <c r="D70">
+        <v>4.58</v>
+      </c>
+      <c r="E70">
+        <v>4.42</v>
+      </c>
+      <c r="F70">
+        <v>4.41</v>
+      </c>
+      <c r="G70">
+        <v>4.33</v>
+      </c>
+      <c r="H70">
+        <v>4.1</v>
+      </c>
+      <c r="I70">
+        <v>3.94</v>
+      </c>
+      <c r="J70">
+        <v>3.89</v>
+      </c>
+      <c r="K70">
+        <v>3.98</v>
+      </c>
+      <c r="L70">
+        <v>4.17</v>
+      </c>
+      <c r="M70">
+        <v>4.38</v>
+      </c>
+      <c r="N70">
+        <v>4.89</v>
+      </c>
+      <c r="O70">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B71">
+        <v>4.23</v>
+      </c>
+      <c r="C71">
+        <v>4.31</v>
+      </c>
+      <c r="D71">
+        <v>4.46</v>
+      </c>
+      <c r="E71">
+        <v>4.42</v>
+      </c>
+      <c r="F71">
+        <v>4.39</v>
+      </c>
+      <c r="G71">
+        <v>4.31</v>
+      </c>
+      <c r="H71">
+        <v>4.1</v>
+      </c>
+      <c r="I71">
+        <v>3.94</v>
+      </c>
+      <c r="J71">
+        <v>3.9</v>
+      </c>
+      <c r="K71">
+        <v>3.99</v>
+      </c>
+      <c r="L71">
+        <v>4.17</v>
+      </c>
+      <c r="M71">
+        <v>4.39</v>
+      </c>
+      <c r="N71">
+        <v>4.89</v>
+      </c>
+      <c r="O71">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B72">
+        <v>4.24</v>
+      </c>
+      <c r="C72">
+        <v>4.36</v>
+      </c>
+      <c r="D72">
+        <v>4.47</v>
+      </c>
+      <c r="E72">
+        <v>4.43</v>
+      </c>
+      <c r="F72">
+        <v>4.4</v>
+      </c>
+      <c r="G72">
+        <v>4.32</v>
+      </c>
+      <c r="H72">
+        <v>4.1</v>
+      </c>
+      <c r="I72">
+        <v>3.97</v>
+      </c>
+      <c r="J72">
+        <v>3.93</v>
+      </c>
+      <c r="K72">
+        <v>4.04</v>
+      </c>
+      <c r="L72">
+        <v>4.23</v>
+      </c>
+      <c r="M72">
+        <v>4.46</v>
+      </c>
+      <c r="N72">
+        <v>4.97</v>
+      </c>
+      <c r="O72">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B73">
+        <v>4.23</v>
+      </c>
+      <c r="C73">
+        <v>4.32</v>
+      </c>
+      <c r="D73">
+        <v>4.48</v>
+      </c>
+      <c r="E73">
+        <v>4.45</v>
+      </c>
+      <c r="F73">
+        <v>4.4</v>
+      </c>
+      <c r="G73">
+        <v>4.3</v>
+      </c>
+      <c r="H73">
+        <v>4.09</v>
+      </c>
+      <c r="I73">
+        <v>3.96</v>
+      </c>
+      <c r="J73">
+        <v>3.9</v>
+      </c>
+      <c r="K73">
+        <v>4.02</v>
+      </c>
+      <c r="L73">
+        <v>4.2</v>
+      </c>
+      <c r="M73">
+        <v>4.41</v>
+      </c>
+      <c r="N73">
+        <v>4.93</v>
+      </c>
+      <c r="O73">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B74">
+        <v>4.18</v>
+      </c>
+      <c r="C74">
+        <v>4.3</v>
+      </c>
+      <c r="D74">
+        <v>4.49</v>
+      </c>
+      <c r="E74">
+        <v>4.46</v>
+      </c>
+      <c r="F74">
+        <v>4.4</v>
+      </c>
+      <c r="G74">
+        <v>4.29</v>
+      </c>
+      <c r="H74">
+        <v>4.06</v>
+      </c>
+      <c r="I74">
+        <v>3.9</v>
+      </c>
+      <c r="J74">
+        <v>3.85</v>
+      </c>
+      <c r="K74">
+        <v>3.97</v>
+      </c>
+      <c r="L74">
+        <v>4.15</v>
+      </c>
+      <c r="M74">
+        <v>4.36</v>
+      </c>
+      <c r="N74">
+        <v>4.86</v>
+      </c>
+      <c r="O74">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B75">
+        <v>4.3</v>
+      </c>
+      <c r="C75">
+        <v>4.32</v>
+      </c>
+      <c r="D75">
+        <v>4.39</v>
+      </c>
+      <c r="E75">
+        <v>4.45</v>
+      </c>
+      <c r="F75">
+        <v>4.39</v>
+      </c>
+      <c r="G75">
+        <v>4.31</v>
+      </c>
+      <c r="H75">
+        <v>4.08</v>
+      </c>
+      <c r="I75">
+        <v>3.94</v>
+      </c>
+      <c r="J75">
+        <v>3.89</v>
+      </c>
+      <c r="K75">
+        <v>4.02</v>
+      </c>
+      <c r="L75">
+        <v>4.21</v>
+      </c>
+      <c r="M75">
+        <v>4.41</v>
+      </c>
+      <c r="N75">
+        <v>4.93</v>
+      </c>
+      <c r="O75">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B76">
+        <v>4.29</v>
+      </c>
+      <c r="C76">
+        <v>4.31</v>
+      </c>
+      <c r="D76">
+        <v>4.37</v>
+      </c>
+      <c r="E76">
+        <v>4.45</v>
+      </c>
+      <c r="F76">
+        <v>4.38</v>
+      </c>
+      <c r="G76">
+        <v>4.32</v>
+      </c>
+      <c r="H76">
+        <v>4.12</v>
+      </c>
+      <c r="I76">
+        <v>4.01</v>
+      </c>
+      <c r="J76">
+        <v>3.95</v>
+      </c>
+      <c r="K76">
+        <v>4.08</v>
+      </c>
+      <c r="L76">
+        <v>4.27</v>
+      </c>
+      <c r="M76">
+        <v>4.47</v>
+      </c>
+      <c r="N76">
+        <v>4.96</v>
+      </c>
+      <c r="O76">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B77">
+        <v>4.29</v>
+      </c>
+      <c r="C77">
+        <v>4.32</v>
+      </c>
+      <c r="D77">
+        <v>4.36</v>
+      </c>
+      <c r="E77">
+        <v>4.44</v>
+      </c>
+      <c r="F77">
+        <v>4.38</v>
+      </c>
+      <c r="G77">
+        <v>4.32</v>
+      </c>
+      <c r="H77">
+        <v>4.13</v>
+      </c>
+      <c r="I77">
+        <v>4.01</v>
+      </c>
+      <c r="J77">
+        <v>3.99</v>
+      </c>
+      <c r="K77">
+        <v>4.09</v>
+      </c>
+      <c r="L77">
+        <v>4.28</v>
+      </c>
+      <c r="M77">
+        <v>4.49</v>
+      </c>
+      <c r="N77">
+        <v>4.98</v>
+      </c>
+      <c r="O77">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B78">
+        <v>4.28</v>
+      </c>
+      <c r="C78">
+        <v>4.31</v>
+      </c>
+      <c r="D78">
+        <v>4.35</v>
+      </c>
+      <c r="E78">
+        <v>4.43</v>
+      </c>
+      <c r="F78">
+        <v>4.38</v>
+      </c>
+      <c r="G78">
+        <v>4.31</v>
+      </c>
+      <c r="H78">
+        <v>4.14</v>
+      </c>
+      <c r="I78">
+        <v>4.04</v>
+      </c>
+      <c r="J78">
+        <v>4.02</v>
+      </c>
+      <c r="K78">
+        <v>4.13</v>
+      </c>
+      <c r="L78">
+        <v>4.31</v>
+      </c>
+      <c r="M78">
+        <v>4.51</v>
+      </c>
+      <c r="N78">
+        <v>4.99</v>
+      </c>
+      <c r="O78">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B79">
+        <v>4.26</v>
+      </c>
+      <c r="C79">
+        <v>4.33</v>
+      </c>
+      <c r="D79">
+        <v>4.35</v>
+      </c>
+      <c r="E79">
+        <v>4.44</v>
+      </c>
+      <c r="F79">
+        <v>4.37</v>
+      </c>
+      <c r="G79">
+        <v>4.29</v>
+      </c>
+      <c r="H79">
+        <v>4.08</v>
+      </c>
+      <c r="I79">
+        <v>3.92</v>
+      </c>
+      <c r="J79">
+        <v>3.9</v>
+      </c>
+      <c r="K79">
+        <v>3.99</v>
+      </c>
+      <c r="L79">
+        <v>4.18</v>
+      </c>
+      <c r="M79">
+        <v>4.4</v>
+      </c>
+      <c r="N79">
+        <v>4.9</v>
+      </c>
+      <c r="O79">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B80">
+        <v>4.32</v>
+      </c>
+      <c r="C80">
+        <v>4.34</v>
+      </c>
+      <c r="D80">
+        <v>4.35</v>
+      </c>
+      <c r="E80">
+        <v>4.44</v>
+      </c>
+      <c r="F80">
+        <v>4.37</v>
+      </c>
+      <c r="G80">
+        <v>4.29</v>
+      </c>
+      <c r="H80">
+        <v>4.06</v>
+      </c>
+      <c r="I80">
+        <v>3.87</v>
+      </c>
+      <c r="J80">
+        <v>3.84</v>
+      </c>
+      <c r="K80">
+        <v>3.93</v>
+      </c>
+      <c r="L80">
+        <v>4.14</v>
+      </c>
+      <c r="M80">
+        <v>4.37</v>
+      </c>
+      <c r="N80">
+        <v>4.9</v>
+      </c>
+      <c r="O80">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B81">
+        <v>4.33</v>
+      </c>
+      <c r="C81">
+        <v>4.34</v>
+      </c>
+      <c r="D81">
+        <v>4.35</v>
+      </c>
+      <c r="E81">
+        <v>4.43</v>
+      </c>
+      <c r="F81">
+        <v>4.38</v>
+      </c>
+      <c r="G81">
+        <v>4.31</v>
+      </c>
+      <c r="H81">
+        <v>4.12</v>
+      </c>
+      <c r="I81">
+        <v>3.96</v>
+      </c>
+      <c r="J81">
+        <v>3.93</v>
+      </c>
+      <c r="K81">
+        <v>4.04</v>
+      </c>
+      <c r="L81">
+        <v>4.23</v>
+      </c>
+      <c r="M81">
+        <v>4.46</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B82">
+        <v>4.33</v>
+      </c>
+      <c r="C82">
+        <v>4.33</v>
+      </c>
+      <c r="D82">
+        <v>4.36</v>
+      </c>
+      <c r="E82">
+        <v>4.44</v>
+      </c>
+      <c r="F82">
+        <v>4.38</v>
+      </c>
+      <c r="G82">
+        <v>4.31</v>
+      </c>
+      <c r="H82">
+        <v>4.12</v>
+      </c>
+      <c r="I82">
+        <v>3.94</v>
+      </c>
+      <c r="J82">
+        <v>3.91</v>
+      </c>
+      <c r="K82">
+        <v>4.01</v>
+      </c>
+      <c r="L82">
+        <v>4.22</v>
+      </c>
+      <c r="M82">
+        <v>4.46</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B83">
+        <v>4.33</v>
+      </c>
+      <c r="C83">
+        <v>4.35</v>
+      </c>
+      <c r="D83">
+        <v>4.35</v>
+      </c>
+      <c r="E83">
+        <v>4.36</v>
+      </c>
+      <c r="F83">
+        <v>4.39</v>
+      </c>
+      <c r="G83">
+        <v>4.36</v>
+      </c>
+      <c r="H83">
+        <v>4.11</v>
+      </c>
+      <c r="I83">
+        <v>3.89</v>
+      </c>
+      <c r="J83">
+        <v>3.87</v>
+      </c>
+      <c r="K83">
+        <v>3.96</v>
+      </c>
+      <c r="L83">
+        <v>4.18</v>
+      </c>
+      <c r="M83">
+        <v>4.41</v>
+      </c>
+      <c r="N83">
+        <v>4.93</v>
+      </c>
+      <c r="O83">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B84">
+        <v>4.34</v>
+      </c>
+      <c r="C84">
+        <v>4.34</v>
+      </c>
+      <c r="D84">
+        <v>4.35</v>
+      </c>
+      <c r="E84">
+        <v>4.36</v>
+      </c>
+      <c r="F84">
+        <v>4.39</v>
+      </c>
+      <c r="G84">
+        <v>4.36</v>
+      </c>
+      <c r="H84">
+        <v>4.13</v>
+      </c>
+      <c r="I84">
+        <v>3.92</v>
+      </c>
+      <c r="J84">
+        <v>3.91</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>4.2</v>
+      </c>
+      <c r="M84">
+        <v>4.43</v>
+      </c>
+      <c r="N84">
+        <v>4.94</v>
+      </c>
+      <c r="O84">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B85">
+        <v>4.35</v>
+      </c>
+      <c r="C85">
+        <v>4.35</v>
+      </c>
+      <c r="D85">
+        <v>4.35</v>
+      </c>
+      <c r="E85">
+        <v>4.35</v>
+      </c>
+      <c r="F85">
+        <v>4.38</v>
+      </c>
+      <c r="G85">
+        <v>4.36</v>
+      </c>
+      <c r="H85">
+        <v>4.16</v>
+      </c>
+      <c r="I85">
+        <v>3.96</v>
+      </c>
+      <c r="J85">
+        <v>3.95</v>
+      </c>
+      <c r="K85">
+        <v>4.05</v>
+      </c>
+      <c r="L85">
+        <v>4.27</v>
+      </c>
+      <c r="M85">
+        <v>4.47</v>
+      </c>
+      <c r="N85">
+        <v>4.99</v>
+      </c>
+      <c r="O85">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B86">
+        <v>4.35</v>
+      </c>
+      <c r="C86">
+        <v>4.35</v>
+      </c>
+      <c r="D86">
+        <v>4.35</v>
+      </c>
+      <c r="E86">
+        <v>4.35</v>
+      </c>
+      <c r="F86">
+        <v>4.43</v>
+      </c>
+      <c r="G86">
+        <v>4.35</v>
+      </c>
+      <c r="H86">
+        <v>4.14</v>
+      </c>
+      <c r="I86">
+        <v>3.92</v>
+      </c>
+      <c r="J86">
+        <v>3.93</v>
+      </c>
+      <c r="K86">
+        <v>4.04</v>
+      </c>
+      <c r="L86">
+        <v>4.22</v>
+      </c>
+      <c r="M86">
+        <v>4.43</v>
+      </c>
+      <c r="N86">
+        <v>4.95</v>
+      </c>
+      <c r="O86">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B87">
+        <v>4.36</v>
+      </c>
+      <c r="C87">
+        <v>4.34</v>
+      </c>
+      <c r="D87">
+        <v>4.35</v>
+      </c>
+      <c r="E87">
+        <v>4.36</v>
+      </c>
+      <c r="F87">
+        <v>4.43</v>
+      </c>
+      <c r="G87">
+        <v>4.35</v>
+      </c>
+      <c r="H87">
+        <v>4.15</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>3.96</v>
+      </c>
+      <c r="K87">
+        <v>4.08</v>
+      </c>
+      <c r="L87">
+        <v>4.29</v>
+      </c>
+      <c r="M87">
+        <v>4.51</v>
+      </c>
+      <c r="N87">
+        <v>5.03</v>
+      </c>
+      <c r="O87">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B88">
+        <v>4.37</v>
+      </c>
+      <c r="C88">
+        <v>4.34</v>
+      </c>
+      <c r="D88">
+        <v>4.35</v>
+      </c>
+      <c r="E88">
+        <v>4.37</v>
+      </c>
+      <c r="F88">
+        <v>4.42</v>
+      </c>
+      <c r="G88">
+        <v>4.34</v>
+      </c>
+      <c r="H88">
+        <v>4.13</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>3.99</v>
+      </c>
+      <c r="K88">
+        <v>4.11</v>
+      </c>
+      <c r="L88">
+        <v>4.32</v>
+      </c>
+      <c r="M88">
+        <v>4.54</v>
+      </c>
+      <c r="N88">
+        <v>5.05</v>
+      </c>
+      <c r="O88">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B89">
+        <v>4.35</v>
+      </c>
+      <c r="C89">
+        <v>4.34</v>
+      </c>
+      <c r="D89">
+        <v>4.34</v>
+      </c>
+      <c r="E89">
+        <v>4.36</v>
+      </c>
+      <c r="F89">
+        <v>4.42</v>
+      </c>
+      <c r="G89">
+        <v>4.33</v>
+      </c>
+      <c r="H89">
+        <v>4.13</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>4.15</v>
+      </c>
+      <c r="L89">
+        <v>4.37</v>
+      </c>
+      <c r="M89">
+        <v>4.58</v>
+      </c>
+      <c r="N89">
+        <v>5.08</v>
+      </c>
+      <c r="O89">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B90">
+        <v>4.36</v>
+      </c>
+      <c r="C90">
+        <v>4.35</v>
+      </c>
+      <c r="D90">
+        <v>4.34</v>
+      </c>
+      <c r="E90">
+        <v>4.38</v>
+      </c>
+      <c r="F90">
+        <v>4.42</v>
+      </c>
+      <c r="G90">
+        <v>4.32</v>
+      </c>
+      <c r="H90">
+        <v>4.12</v>
+      </c>
+      <c r="I90">
+        <v>3.97</v>
+      </c>
+      <c r="J90">
+        <v>3.95</v>
+      </c>
+      <c r="K90">
+        <v>4.07</v>
+      </c>
+      <c r="L90">
+        <v>4.27</v>
+      </c>
+      <c r="M90">
+        <v>4.48</v>
+      </c>
+      <c r="N90">
+        <v>4.99</v>
+      </c>
+      <c r="O90">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B91">
+        <v>4.37</v>
+      </c>
+      <c r="C91">
+        <v>4.36</v>
+      </c>
+      <c r="D91">
+        <v>4.35</v>
+      </c>
+      <c r="E91">
+        <v>4.39</v>
+      </c>
+      <c r="F91">
+        <v>4.42</v>
+      </c>
+      <c r="G91">
+        <v>4.32</v>
+      </c>
+      <c r="H91">
+        <v>4.12</v>
+      </c>
+      <c r="I91">
+        <v>3.97</v>
+      </c>
+      <c r="J91">
+        <v>3.95</v>
+      </c>
+      <c r="K91">
+        <v>4.07</v>
+      </c>
+      <c r="L91">
+        <v>4.26</v>
+      </c>
+      <c r="M91">
+        <v>4.46</v>
+      </c>
+      <c r="N91">
+        <v>4.95</v>
+      </c>
+      <c r="O91">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B92">
+        <v>4.37</v>
+      </c>
+      <c r="C92">
+        <v>4.36</v>
+      </c>
+      <c r="D92">
+        <v>4.34</v>
+      </c>
+      <c r="E92">
+        <v>4.37</v>
+      </c>
+      <c r="F92">
+        <v>4.42</v>
+      </c>
+      <c r="G92">
+        <v>4.3</v>
+      </c>
+      <c r="H92">
+        <v>4.13</v>
+      </c>
+      <c r="I92">
+        <v>3.98</v>
+      </c>
+      <c r="J92">
+        <v>3.95</v>
+      </c>
+      <c r="K92">
+        <v>4.06</v>
+      </c>
+      <c r="L92">
+        <v>4.24</v>
+      </c>
+      <c r="M92">
+        <v>4.43</v>
+      </c>
+      <c r="N92">
+        <v>4.92</v>
+      </c>
+      <c r="O92">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B93">
+        <v>4.37</v>
+      </c>
+      <c r="C93">
+        <v>4.38</v>
+      </c>
+      <c r="D93">
+        <v>4.35</v>
+      </c>
+      <c r="E93">
+        <v>4.38</v>
+      </c>
+      <c r="F93">
+        <v>4.43</v>
+      </c>
+      <c r="G93">
+        <v>4.29</v>
+      </c>
+      <c r="H93">
+        <v>4.1</v>
+      </c>
+      <c r="I93">
+        <v>3.96</v>
+      </c>
+      <c r="J93">
+        <v>3.95</v>
+      </c>
+      <c r="K93">
+        <v>4.07</v>
+      </c>
+      <c r="L93">
+        <v>4.25</v>
+      </c>
+      <c r="M93">
+        <v>4.45</v>
+      </c>
+      <c r="N93">
+        <v>4.93</v>
+      </c>
+      <c r="O93">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B94">
+        <v>4.39</v>
+      </c>
+      <c r="C94">
+        <v>4.38</v>
+      </c>
+      <c r="D94">
+        <v>4.36</v>
+      </c>
+      <c r="E94">
+        <v>4.41</v>
+      </c>
+      <c r="F94">
+        <v>4.44</v>
+      </c>
+      <c r="G94">
+        <v>4.3</v>
+      </c>
+      <c r="H94">
+        <v>4.14</v>
+      </c>
+      <c r="I94">
+        <v>4.05</v>
+      </c>
+      <c r="J94">
+        <v>4.05</v>
+      </c>
+      <c r="K94">
+        <v>4.17</v>
+      </c>
+      <c r="L94">
+        <v>4.35</v>
+      </c>
+      <c r="M94">
+        <v>4.53</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95">
+        <v>4.39</v>
+      </c>
+      <c r="C95">
+        <v>4.38</v>
+      </c>
+      <c r="D95">
+        <v>4.35</v>
+      </c>
+      <c r="E95">
+        <v>4.41</v>
+      </c>
+      <c r="F95">
+        <v>4.45</v>
+      </c>
+      <c r="G95">
+        <v>4.29</v>
+      </c>
+      <c r="H95">
+        <v>4.11</v>
+      </c>
+      <c r="I95">
+        <v>4.02</v>
+      </c>
+      <c r="J95">
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <v>4.12</v>
+      </c>
+      <c r="L95">
+        <v>4.3</v>
+      </c>
+      <c r="M95">
+        <v>4.49</v>
+      </c>
+      <c r="N95">
+        <v>4.97</v>
+      </c>
+      <c r="O95">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B96">
+        <v>4.38</v>
+      </c>
+      <c r="C96">
+        <v>4.37</v>
+      </c>
+      <c r="D96">
+        <v>4.36</v>
+      </c>
+      <c r="E96">
+        <v>4.42</v>
+      </c>
+      <c r="F96">
+        <v>4.45</v>
+      </c>
+      <c r="G96">
+        <v>4.29</v>
+      </c>
+      <c r="H96">
+        <v>4.11</v>
+      </c>
+      <c r="I96">
+        <v>3.98</v>
+      </c>
+      <c r="J96">
+        <v>3.97</v>
+      </c>
+      <c r="K96">
+        <v>4.09</v>
+      </c>
+      <c r="L96">
+        <v>4.27</v>
+      </c>
+      <c r="M96">
+        <v>4.45</v>
+      </c>
+      <c r="N96">
+        <v>4.92</v>
+      </c>
+      <c r="O96">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B97">
+        <v>4.37</v>
+      </c>
+      <c r="C97">
+        <v>4.36</v>
+      </c>
+      <c r="D97">
+        <v>4.34</v>
+      </c>
+      <c r="E97">
+        <v>4.34</v>
+      </c>
+      <c r="F97">
+        <v>4.4</v>
+      </c>
+      <c r="G97">
+        <v>4.28</v>
+      </c>
+      <c r="H97">
+        <v>4.05</v>
+      </c>
+      <c r="I97">
+        <v>3.88</v>
+      </c>
+      <c r="J97">
+        <v>3.85</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>4.18</v>
+      </c>
+      <c r="M97">
+        <v>4.37</v>
+      </c>
+      <c r="N97">
+        <v>4.86</v>
+      </c>
+      <c r="O97">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B98">
+        <v>4.37</v>
+      </c>
+      <c r="C98">
+        <v>4.37</v>
+      </c>
+      <c r="D98">
+        <v>4.35</v>
+      </c>
+      <c r="E98">
+        <v>4.34</v>
+      </c>
+      <c r="F98">
+        <v>4.4</v>
+      </c>
+      <c r="G98">
+        <v>4.28</v>
+      </c>
+      <c r="H98">
+        <v>4.05</v>
+      </c>
+      <c r="I98">
+        <v>3.9</v>
+      </c>
+      <c r="J98">
+        <v>3.85</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+      <c r="L98">
+        <v>4.18</v>
+      </c>
+      <c r="M98">
+        <v>4.37</v>
+      </c>
+      <c r="N98">
+        <v>4.86</v>
+      </c>
+      <c r="O98">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B99">
+        <v>4.37</v>
+      </c>
+      <c r="C99">
+        <v>4.37</v>
+      </c>
+      <c r="D99">
+        <v>4.33</v>
+      </c>
+      <c r="E99">
+        <v>4.34</v>
+      </c>
+      <c r="F99">
+        <v>4.39</v>
+      </c>
+      <c r="G99">
+        <v>4.27</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>3.78</v>
+      </c>
+      <c r="J99">
+        <v>3.72</v>
+      </c>
+      <c r="K99">
+        <v>3.87</v>
+      </c>
+      <c r="L99">
+        <v>4.06</v>
+      </c>
+      <c r="M99">
+        <v>4.26</v>
+      </c>
+      <c r="N99">
+        <v>4.78</v>
+      </c>
+      <c r="O99">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B100">
+        <v>4.37</v>
+      </c>
+      <c r="C100">
+        <v>4.37</v>
+      </c>
+      <c r="D100">
+        <v>4.33</v>
+      </c>
+      <c r="E100">
+        <v>4.33</v>
+      </c>
+      <c r="F100">
+        <v>4.38</v>
+      </c>
+      <c r="G100">
+        <v>4.25</v>
+      </c>
+      <c r="H100">
+        <v>3.98</v>
+      </c>
+      <c r="I100">
+        <v>3.78</v>
+      </c>
+      <c r="J100">
+        <v>3.73</v>
+      </c>
+      <c r="K100">
+        <v>3.9</v>
+      </c>
+      <c r="L100">
+        <v>4.1</v>
+      </c>
+      <c r="M100">
+        <v>4.3</v>
+      </c>
+      <c r="N100">
+        <v>4.82</v>
+      </c>
+      <c r="O100">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B101">
+        <v>4.38</v>
+      </c>
+      <c r="C101">
+        <v>4.36</v>
+      </c>
+      <c r="D101">
+        <v>4.34</v>
+      </c>
+      <c r="E101">
+        <v>4.33</v>
+      </c>
+      <c r="F101">
+        <v>4.4</v>
+      </c>
+      <c r="G101">
+        <v>4.27</v>
+      </c>
+      <c r="H101">
+        <v>4.02</v>
+      </c>
+      <c r="I101">
+        <v>3.83</v>
+      </c>
+      <c r="J101">
+        <v>3.78</v>
+      </c>
+      <c r="K101">
+        <v>3.95</v>
+      </c>
+      <c r="L101">
+        <v>4.14</v>
+      </c>
+      <c r="M101">
+        <v>4.36</v>
+      </c>
+      <c r="N101">
+        <v>4.84</v>
+      </c>
+      <c r="O101">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B102">
+        <v>4.38</v>
+      </c>
+      <c r="C102">
+        <v>4.36</v>
+      </c>
+      <c r="D102">
+        <v>4.34</v>
+      </c>
+      <c r="E102">
+        <v>4.33</v>
+      </c>
+      <c r="F102">
+        <v>4.41</v>
+      </c>
+      <c r="G102">
+        <v>4.26</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>3.83</v>
+      </c>
+      <c r="J102">
+        <v>3.82</v>
+      </c>
+      <c r="K102">
+        <v>3.92</v>
+      </c>
+      <c r="L102">
+        <v>4.11</v>
+      </c>
+      <c r="M102">
+        <v>4.33</v>
+      </c>
+      <c r="N102">
+        <v>4.81</v>
+      </c>
+      <c r="O102">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B103">
+        <v>4.38</v>
+      </c>
+      <c r="C103">
+        <v>4.36</v>
+      </c>
+      <c r="D103">
+        <v>4.34</v>
+      </c>
+      <c r="E103">
+        <v>4.31</v>
+      </c>
+      <c r="F103">
+        <v>4.38</v>
+      </c>
+      <c r="G103">
+        <v>4.22</v>
+      </c>
+      <c r="H103">
+        <v>3.92</v>
+      </c>
+      <c r="I103">
+        <v>3.7</v>
+      </c>
+      <c r="J103">
+        <v>3.69</v>
+      </c>
+      <c r="K103">
+        <v>3.81</v>
+      </c>
+      <c r="L103">
+        <v>4.02</v>
+      </c>
+      <c r="M103">
+        <v>4.25</v>
+      </c>
+      <c r="N103">
+        <v>4.75</v>
+      </c>
+      <c r="O103">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B104">
+        <v>4.35</v>
+      </c>
+      <c r="C104">
+        <v>4.37</v>
+      </c>
+      <c r="D104">
+        <v>4.36</v>
+      </c>
+      <c r="E104">
+        <v>4.31</v>
+      </c>
+      <c r="F104">
+        <v>4.37</v>
+      </c>
+      <c r="G104">
+        <v>4.19</v>
+      </c>
+      <c r="H104">
+        <v>3.85</v>
+      </c>
+      <c r="I104">
+        <v>3.6</v>
+      </c>
+      <c r="J104">
+        <v>3.58</v>
+      </c>
+      <c r="K104">
+        <v>3.72</v>
+      </c>
+      <c r="L104">
+        <v>3.93</v>
+      </c>
+      <c r="M104">
+        <v>4.17</v>
+      </c>
+      <c r="N104">
+        <v>4.68</v>
+      </c>
+      <c r="O104">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B105">
+        <v>4.35</v>
+      </c>
+      <c r="C105">
+        <v>4.38</v>
+      </c>
+      <c r="D105">
+        <v>4.36</v>
+      </c>
+      <c r="E105">
+        <v>4.31</v>
+      </c>
+      <c r="F105">
+        <v>4.3</v>
+      </c>
+      <c r="G105">
+        <v>4.2</v>
+      </c>
+      <c r="H105">
+        <v>3.89</v>
+      </c>
+      <c r="I105">
+        <v>3.65</v>
+      </c>
+      <c r="J105">
+        <v>3.65</v>
+      </c>
+      <c r="K105">
+        <v>3.77</v>
+      </c>
+      <c r="L105">
+        <v>3.96</v>
+      </c>
+      <c r="M105">
+        <v>4.19</v>
+      </c>
+      <c r="N105">
+        <v>4.66</v>
+      </c>
+      <c r="O105">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B106">
+        <v>4.35</v>
+      </c>
+      <c r="C106">
+        <v>4.37</v>
+      </c>
+      <c r="D106">
+        <v>4.37</v>
+      </c>
+      <c r="E106">
+        <v>4.32</v>
+      </c>
+      <c r="F106">
+        <v>4.32</v>
+      </c>
+      <c r="G106">
+        <v>4.22</v>
+      </c>
+      <c r="H106">
+        <v>3.92</v>
+      </c>
+      <c r="I106">
+        <v>3.67</v>
+      </c>
+      <c r="J106">
+        <v>3.67</v>
+      </c>
+      <c r="K106">
+        <v>3.81</v>
+      </c>
+      <c r="L106">
+        <v>4.01</v>
+      </c>
+      <c r="M106">
+        <v>4.23</v>
+      </c>
+      <c r="N106">
+        <v>4.71</v>
+      </c>
+      <c r="O106">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B107">
+        <v>4.34</v>
+      </c>
+      <c r="C107">
+        <v>4.37</v>
+      </c>
+      <c r="D107">
+        <v>4.36</v>
+      </c>
+      <c r="E107">
+        <v>4.32</v>
+      </c>
+      <c r="F107">
+        <v>4.32</v>
+      </c>
+      <c r="G107">
+        <v>4.22</v>
+      </c>
+      <c r="H107">
+        <v>3.95</v>
+      </c>
+      <c r="I107">
+        <v>3.74</v>
+      </c>
+      <c r="J107">
+        <v>3.76</v>
+      </c>
+      <c r="K107">
+        <v>3.88</v>
+      </c>
+      <c r="L107">
+        <v>4.06</v>
+      </c>
+      <c r="M107">
+        <v>4.29</v>
+      </c>
+      <c r="N107">
+        <v>4.75</v>
+      </c>
+      <c r="O107">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B108">
+        <v>4.34</v>
+      </c>
+      <c r="C108">
+        <v>4.36</v>
+      </c>
+      <c r="D108">
+        <v>4.37</v>
+      </c>
+      <c r="E108">
+        <v>4.32</v>
+      </c>
+      <c r="F108">
+        <v>4.32</v>
+      </c>
+      <c r="G108">
+        <v>4.22</v>
+      </c>
+      <c r="H108">
+        <v>3.97</v>
+      </c>
+      <c r="I108">
+        <v>3.77</v>
+      </c>
+      <c r="J108">
+        <v>3.8</v>
+      </c>
+      <c r="K108">
+        <v>3.91</v>
+      </c>
+      <c r="L108">
+        <v>4.11</v>
+      </c>
+      <c r="M108">
+        <v>4.32</v>
+      </c>
+      <c r="N108">
+        <v>4.79</v>
+      </c>
+      <c r="O108">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B109">
+        <v>4.33</v>
+      </c>
+      <c r="C109">
+        <v>4.36</v>
+      </c>
+      <c r="D109">
+        <v>4.34</v>
+      </c>
+      <c r="E109">
+        <v>4.33</v>
+      </c>
+      <c r="F109">
+        <v>4.33</v>
+      </c>
+      <c r="G109">
+        <v>4.22</v>
+      </c>
+      <c r="H109">
+        <v>4.01</v>
+      </c>
+      <c r="I109">
+        <v>3.81</v>
+      </c>
+      <c r="J109">
+        <v>3.87</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>4.2</v>
+      </c>
+      <c r="M109">
+        <v>4.4</v>
+      </c>
+      <c r="N109">
+        <v>4.86</v>
+      </c>
+      <c r="O109">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B110">
+        <v>4.33</v>
+      </c>
+      <c r="C110">
+        <v>4.37</v>
+      </c>
+      <c r="D110">
+        <v>4.35</v>
+      </c>
+      <c r="E110">
+        <v>4.33</v>
+      </c>
+      <c r="F110">
+        <v>4.33</v>
+      </c>
+      <c r="G110">
+        <v>4.21</v>
+      </c>
+      <c r="H110">
+        <v>3.98</v>
+      </c>
+      <c r="I110">
+        <v>3.76</v>
+      </c>
+      <c r="J110">
+        <v>3.82</v>
+      </c>
+      <c r="K110">
+        <v>3.98</v>
+      </c>
+      <c r="L110">
+        <v>4.19</v>
+      </c>
+      <c r="M110">
+        <v>4.41</v>
+      </c>
+      <c r="N110">
+        <v>4.9</v>
+      </c>
+      <c r="O110">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B111">
+        <v>4.35</v>
+      </c>
+      <c r="C111">
+        <v>4.35</v>
+      </c>
+      <c r="D111">
+        <v>4.37</v>
+      </c>
+      <c r="E111">
+        <v>4.34</v>
+      </c>
+      <c r="F111">
+        <v>4.33</v>
+      </c>
+      <c r="G111">
+        <v>4.21</v>
+      </c>
+      <c r="H111">
+        <v>3.95</v>
+      </c>
+      <c r="I111">
+        <v>3.75</v>
+      </c>
+      <c r="J111">
+        <v>3.77</v>
+      </c>
+      <c r="K111">
+        <v>3.97</v>
+      </c>
+      <c r="L111">
+        <v>4.19</v>
+      </c>
+      <c r="M111">
+        <v>4.42</v>
+      </c>
+      <c r="N111">
+        <v>4.94</v>
+      </c>
+      <c r="O111">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B112">
+        <v>4.36</v>
+      </c>
+      <c r="C112">
+        <v>4.35</v>
+      </c>
+      <c r="D112">
+        <v>4.38</v>
+      </c>
+      <c r="E112">
+        <v>4.34</v>
+      </c>
+      <c r="F112">
+        <v>4.35</v>
+      </c>
+      <c r="G112">
+        <v>4.22</v>
+      </c>
+      <c r="H112">
+        <v>3.99</v>
+      </c>
+      <c r="I112">
+        <v>3.81</v>
+      </c>
+      <c r="J112">
+        <v>3.82</v>
+      </c>
+      <c r="K112">
+        <v>3.95</v>
+      </c>
+      <c r="L112">
+        <v>4.13</v>
+      </c>
+      <c r="M112">
+        <v>4.34</v>
+      </c>
+      <c r="N112">
+        <v>4.82</v>
+      </c>
+      <c r="O112">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B113">
+        <v>4.35</v>
+      </c>
+      <c r="C113">
+        <v>4.35</v>
+      </c>
+      <c r="D113">
+        <v>4.35</v>
+      </c>
+      <c r="E113">
+        <v>4.33</v>
+      </c>
+      <c r="F113">
+        <v>4.34</v>
+      </c>
+      <c r="G113">
+        <v>4.2</v>
+      </c>
+      <c r="H113">
+        <v>3.96</v>
+      </c>
+      <c r="I113">
+        <v>3.77</v>
+      </c>
+      <c r="J113">
+        <v>3.77</v>
+      </c>
+      <c r="K113">
+        <v>3.91</v>
+      </c>
+      <c r="L113">
+        <v>4.08</v>
+      </c>
+      <c r="M113">
+        <v>4.29</v>
+      </c>
+      <c r="N113">
+        <v>4.77</v>
+      </c>
+      <c r="O113">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B114">
+        <v>4.35</v>
+      </c>
+      <c r="C114">
+        <v>4.36</v>
+      </c>
+      <c r="D114">
+        <v>4.36</v>
+      </c>
+      <c r="E114">
+        <v>4.33</v>
+      </c>
+      <c r="F114">
+        <v>4.32</v>
+      </c>
+      <c r="G114">
+        <v>4.21</v>
+      </c>
+      <c r="H114">
+        <v>3.99</v>
+      </c>
+      <c r="I114">
+        <v>3.84</v>
+      </c>
+      <c r="J114">
+        <v>3.85</v>
+      </c>
+      <c r="K114">
+        <v>3.98</v>
+      </c>
+      <c r="L114">
+        <v>4.15</v>
+      </c>
+      <c r="M114">
+        <v>4.35</v>
+      </c>
+      <c r="N114">
+        <v>4.82</v>
+      </c>
+      <c r="O114">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B115">
+        <v>4.34</v>
+      </c>
+      <c r="C115">
+        <v>4.36</v>
+      </c>
+      <c r="D115">
+        <v>4.37</v>
+      </c>
+      <c r="E115">
+        <v>4.33</v>
+      </c>
+      <c r="F115">
+        <v>4.34</v>
+      </c>
+      <c r="G115">
+        <v>4.21</v>
+      </c>
+      <c r="H115">
+        <v>3.99</v>
+      </c>
+      <c r="I115">
+        <v>3.84</v>
+      </c>
+      <c r="J115">
+        <v>3.87</v>
+      </c>
+      <c r="K115">
+        <v>4.02</v>
+      </c>
+      <c r="L115">
+        <v>4.2</v>
+      </c>
+      <c r="M115">
+        <v>4.38</v>
+      </c>
+      <c r="N115">
+        <v>4.84</v>
+      </c>
+      <c r="O115">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B116">
+        <v>4.37</v>
+      </c>
+      <c r="C116">
+        <v>4.35</v>
+      </c>
+      <c r="D116">
+        <v>4.38</v>
+      </c>
+      <c r="E116">
+        <v>4.34</v>
+      </c>
+      <c r="F116">
+        <v>4.35</v>
+      </c>
+      <c r="G116">
+        <v>4.21</v>
+      </c>
+      <c r="H116">
+        <v>4.04</v>
+      </c>
+      <c r="I116">
+        <v>3.96</v>
+      </c>
+      <c r="J116">
+        <v>3.98</v>
+      </c>
+      <c r="K116">
+        <v>4.15</v>
+      </c>
+      <c r="L116">
+        <v>4.32</v>
+      </c>
+      <c r="M116">
+        <v>4.48</v>
+      </c>
+      <c r="N116">
+        <v>4.91</v>
+      </c>
+      <c r="O116">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B117">
+        <v>4.36</v>
+      </c>
+      <c r="C117">
+        <v>4.36</v>
+      </c>
+      <c r="D117">
+        <v>4.39</v>
+      </c>
+      <c r="E117">
+        <v>4.34</v>
+      </c>
+      <c r="F117">
+        <v>4.33</v>
+      </c>
+      <c r="G117">
+        <v>4.17</v>
+      </c>
+      <c r="H117">
+        <v>3.97</v>
+      </c>
+      <c r="I117">
+        <v>3.84</v>
+      </c>
+      <c r="J117">
+        <v>3.85</v>
+      </c>
+      <c r="K117">
+        <v>4.04</v>
+      </c>
+      <c r="L117">
+        <v>4.21</v>
+      </c>
+      <c r="M117">
+        <v>4.4</v>
+      </c>
+      <c r="N117">
+        <v>4.9</v>
+      </c>
+      <c r="O117">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B118">
+        <v>4.36</v>
+      </c>
+      <c r="C118">
+        <v>4.38</v>
+      </c>
+      <c r="D118">
+        <v>4.37</v>
+      </c>
+      <c r="E118">
+        <v>4.35</v>
+      </c>
+      <c r="F118">
+        <v>4.36</v>
+      </c>
+      <c r="G118">
+        <v>4.23</v>
+      </c>
+      <c r="H118">
+        <v>4.03</v>
+      </c>
+      <c r="I118">
+        <v>3.91</v>
+      </c>
+      <c r="J118">
+        <v>3.91</v>
+      </c>
+      <c r="K118">
+        <v>4.06</v>
+      </c>
+      <c r="L118">
+        <v>4.2</v>
+      </c>
+      <c r="M118">
+        <v>4.34</v>
+      </c>
+      <c r="N118">
+        <v>4.78</v>
+      </c>
+      <c r="O118">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B119">
+        <v>4.36</v>
+      </c>
+      <c r="C119">
+        <v>4.39</v>
+      </c>
+      <c r="D119">
+        <v>4.37</v>
+      </c>
+      <c r="E119">
+        <v>4.31</v>
+      </c>
+      <c r="F119">
+        <v>4.3</v>
+      </c>
+      <c r="G119">
+        <v>4.14</v>
+      </c>
+      <c r="H119">
+        <v>3.83</v>
+      </c>
+      <c r="I119">
+        <v>3.71</v>
+      </c>
+      <c r="J119">
+        <v>3.71</v>
+      </c>
+      <c r="K119">
+        <v>3.88</v>
+      </c>
+      <c r="L119">
+        <v>4.05</v>
+      </c>
+      <c r="M119">
+        <v>4.26</v>
+      </c>
+      <c r="N119">
+        <v>4.76</v>
+      </c>
+      <c r="O119">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B120">
+        <v>4.36</v>
+      </c>
+      <c r="C120">
+        <v>4.36</v>
+      </c>
+      <c r="D120">
+        <v>4.36</v>
+      </c>
+      <c r="E120">
+        <v>4.29</v>
+      </c>
+      <c r="F120">
+        <v>4.28</v>
+      </c>
+      <c r="G120">
+        <v>4.14</v>
+      </c>
+      <c r="H120">
+        <v>3.86</v>
+      </c>
+      <c r="I120">
+        <v>3.73</v>
+      </c>
+      <c r="J120">
+        <v>3.72</v>
+      </c>
+      <c r="K120">
+        <v>3.82</v>
+      </c>
+      <c r="L120">
+        <v>3.97</v>
+      </c>
+      <c r="M120">
+        <v>4.15</v>
+      </c>
+      <c r="N120">
+        <v>4.61</v>
+      </c>
+      <c r="O120">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B121">
+        <v>4.36</v>
+      </c>
+      <c r="C121">
+        <v>4.35</v>
+      </c>
+      <c r="D121">
+        <v>4.36</v>
+      </c>
+      <c r="E121">
+        <v>4.28</v>
+      </c>
+      <c r="F121">
+        <v>4.25</v>
+      </c>
+      <c r="G121">
+        <v>4.14</v>
+      </c>
+      <c r="H121">
+        <v>3.86</v>
+      </c>
+      <c r="I121">
+        <v>3.68</v>
+      </c>
+      <c r="J121">
+        <v>3.66</v>
+      </c>
+      <c r="K121">
+        <v>3.72</v>
+      </c>
+      <c r="L121">
+        <v>3.84</v>
+      </c>
+      <c r="M121">
+        <v>4.01</v>
+      </c>
+      <c r="N121">
+        <v>4.44</v>
+      </c>
+      <c r="O121">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B122">
+        <v>4.36</v>
+      </c>
+      <c r="C122">
+        <v>4.37</v>
+      </c>
+      <c r="D122">
+        <v>4.38</v>
+      </c>
+      <c r="E122">
+        <v>4.31</v>
+      </c>
+      <c r="F122">
+        <v>4.29</v>
+      </c>
+      <c r="G122">
+        <v>4.2</v>
+      </c>
+      <c r="H122">
+        <v>3.92</v>
+      </c>
+      <c r="I122">
+        <v>3.71</v>
+      </c>
+      <c r="J122">
+        <v>3.68</v>
+      </c>
+      <c r="K122">
+        <v>3.75</v>
+      </c>
+      <c r="L122">
+        <v>3.88</v>
+      </c>
+      <c r="M122">
+        <v>4.06</v>
+      </c>
+      <c r="N122">
+        <v>4.51</v>
+      </c>
+      <c r="O122">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B123">
+        <v>4.38</v>
+      </c>
+      <c r="C123">
+        <v>4.36</v>
+      </c>
+      <c r="D123">
+        <v>4.34</v>
+      </c>
+      <c r="E123">
+        <v>4.32</v>
+      </c>
+      <c r="F123">
+        <v>4.32</v>
+      </c>
+      <c r="G123">
+        <v>4.24</v>
+      </c>
+      <c r="H123">
+        <v>4.04</v>
+      </c>
+      <c r="I123">
+        <v>3.91</v>
+      </c>
+      <c r="J123">
+        <v>3.89</v>
+      </c>
+      <c r="K123">
+        <v>3.95</v>
+      </c>
+      <c r="L123">
+        <v>4.07</v>
+      </c>
+      <c r="M123">
+        <v>4.2</v>
+      </c>
+      <c r="N123">
+        <v>4.58</v>
+      </c>
+      <c r="O123">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B124">
+        <v>4.38</v>
+      </c>
+      <c r="C124">
+        <v>4.36</v>
+      </c>
+      <c r="D124">
+        <v>4.35</v>
+      </c>
+      <c r="E124">
+        <v>4.32</v>
+      </c>
+      <c r="F124">
+        <v>4.3</v>
+      </c>
+      <c r="G124">
+        <v>4.23</v>
+      </c>
+      <c r="H124">
+        <v>4.01</v>
+      </c>
+      <c r="I124">
+        <v>3.87</v>
+      </c>
+      <c r="J124">
+        <v>3.85</v>
+      </c>
+      <c r="K124">
+        <v>3.91</v>
+      </c>
+      <c r="L124">
+        <v>4.03</v>
+      </c>
+      <c r="M124">
+        <v>4.17</v>
+      </c>
+      <c r="N124">
+        <v>4.56</v>
+      </c>
+      <c r="O124">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B125">
+        <v>4.38</v>
+      </c>
+      <c r="C125">
+        <v>4.36</v>
+      </c>
+      <c r="D125">
+        <v>4.35</v>
+      </c>
+      <c r="E125">
+        <v>4.32</v>
+      </c>
+      <c r="F125">
+        <v>4.31</v>
+      </c>
+      <c r="G125">
+        <v>4.23</v>
+      </c>
+      <c r="H125">
+        <v>4.03</v>
+      </c>
+      <c r="I125">
+        <v>3.89</v>
+      </c>
+      <c r="J125">
+        <v>3.89</v>
+      </c>
+      <c r="K125">
+        <v>3.96</v>
+      </c>
+      <c r="L125">
+        <v>4.09</v>
+      </c>
+      <c r="M125">
+        <v>4.23</v>
+      </c>
+      <c r="N125">
+        <v>4.62</v>
+      </c>
+      <c r="O125">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B126">
+        <v>4.38</v>
+      </c>
+      <c r="C126">
+        <v>4.35</v>
+      </c>
+      <c r="D126">
+        <v>4.35</v>
+      </c>
+      <c r="E126">
+        <v>4.33</v>
+      </c>
+      <c r="F126">
+        <v>4.3</v>
+      </c>
+      <c r="G126">
+        <v>4.26</v>
+      </c>
+      <c r="H126">
+        <v>4.04</v>
+      </c>
+      <c r="I126">
+        <v>3.89</v>
+      </c>
+      <c r="J126">
+        <v>3.91</v>
+      </c>
+      <c r="K126">
+        <v>3.98</v>
+      </c>
+      <c r="L126">
+        <v>4.11</v>
+      </c>
+      <c r="M126">
+        <v>4.27</v>
+      </c>
+      <c r="N126">
+        <v>4.65</v>
+      </c>
+      <c r="O126">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B127">
+        <v>4.37</v>
+      </c>
+      <c r="C127">
+        <v>4.35</v>
+      </c>
+      <c r="D127">
+        <v>4.36</v>
+      </c>
+      <c r="E127">
+        <v>4.33</v>
+      </c>
+      <c r="F127">
+        <v>4.31</v>
+      </c>
+      <c r="G127">
+        <v>4.27</v>
+      </c>
+      <c r="H127">
+        <v>4.1</v>
+      </c>
+      <c r="I127">
+        <v>3.97</v>
+      </c>
+      <c r="J127">
+        <v>4</v>
+      </c>
+      <c r="K127">
+        <v>4.09</v>
+      </c>
+      <c r="L127">
+        <v>4.23</v>
+      </c>
+      <c r="M127">
+        <v>4.38</v>
+      </c>
+      <c r="N127">
+        <v>4.75</v>
+      </c>
+      <c r="O127">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B128">
+        <v>4.36</v>
+      </c>
+      <c r="C128">
+        <v>4.34</v>
+      </c>
+      <c r="D128">
+        <v>4.33</v>
+      </c>
+      <c r="E128">
+        <v>4.33</v>
+      </c>
+      <c r="F128">
+        <v>4.31</v>
+      </c>
+      <c r="G128">
+        <v>4.26</v>
+      </c>
+      <c r="H128">
+        <v>4.1</v>
+      </c>
+      <c r="I128">
+        <v>3.98</v>
+      </c>
+      <c r="J128">
+        <v>4.01</v>
+      </c>
+      <c r="K128">
+        <v>4.08</v>
+      </c>
+      <c r="L128">
+        <v>4.22</v>
+      </c>
+      <c r="M128">
+        <v>4.35</v>
+      </c>
+      <c r="N128">
+        <v>4.71</v>
+      </c>
+      <c r="O128">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B129">
+        <v>4.36</v>
+      </c>
+      <c r="C129">
+        <v>4.34</v>
+      </c>
+      <c r="D129">
+        <v>4.33</v>
+      </c>
+      <c r="E129">
+        <v>4.33</v>
+      </c>
+      <c r="F129">
+        <v>4.3</v>
+      </c>
+      <c r="G129">
+        <v>4.26</v>
+      </c>
+      <c r="H129">
+        <v>4.09</v>
+      </c>
+      <c r="I129">
+        <v>3.96</v>
+      </c>
+      <c r="J129">
+        <v>3.98</v>
+      </c>
+      <c r="K129">
+        <v>4.07</v>
+      </c>
+      <c r="L129">
+        <v>4.19</v>
+      </c>
+      <c r="M129">
+        <v>4.31</v>
+      </c>
+      <c r="N129">
+        <v>4.67</v>
+      </c>
+      <c r="O129">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B130">
+        <v>4.35</v>
+      </c>
+      <c r="C130">
+        <v>4.34</v>
+      </c>
+      <c r="D130">
+        <v>4.34</v>
+      </c>
+      <c r="E130">
+        <v>4.33</v>
+      </c>
+      <c r="F130">
+        <v>4.3</v>
+      </c>
+      <c r="G130">
+        <v>4.27</v>
+      </c>
+      <c r="H130">
+        <v>4.11</v>
+      </c>
+      <c r="I130">
+        <v>4.04</v>
+      </c>
+      <c r="J130">
+        <v>4.01</v>
+      </c>
+      <c r="K130">
+        <v>4.09</v>
+      </c>
+      <c r="L130">
+        <v>4.22</v>
+      </c>
+      <c r="M130">
+        <v>4.34</v>
+      </c>
+      <c r="N130">
+        <v>4.68</v>
+      </c>
+      <c r="O130">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B131">
+        <v>4.36</v>
+      </c>
+      <c r="C131">
+        <v>4.33</v>
+      </c>
+      <c r="D131">
+        <v>4.33</v>
+      </c>
+      <c r="E131">
+        <v>4.33</v>
+      </c>
+      <c r="F131">
+        <v>4.29</v>
+      </c>
+      <c r="G131">
+        <v>4.26</v>
+      </c>
+      <c r="H131">
+        <v>4.04</v>
+      </c>
+      <c r="I131">
+        <v>3.94</v>
+      </c>
+      <c r="J131">
+        <v>3.92</v>
+      </c>
+      <c r="K131">
+        <v>4</v>
+      </c>
+      <c r="L131">
+        <v>4.12</v>
+      </c>
+      <c r="M131">
+        <v>4.25</v>
+      </c>
+      <c r="N131">
+        <v>4.6</v>
+      </c>
+      <c r="O131">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B132">
+        <v>4.36</v>
+      </c>
+      <c r="C132">
+        <v>4.34</v>
+      </c>
+      <c r="D132">
+        <v>4.34</v>
+      </c>
+      <c r="E132">
+        <v>4.33</v>
+      </c>
+      <c r="F132">
+        <v>4.29</v>
+      </c>
+      <c r="G132">
+        <v>4.27</v>
+      </c>
+      <c r="H132">
+        <v>4.06</v>
+      </c>
+      <c r="I132">
+        <v>3.95</v>
+      </c>
+      <c r="J132">
+        <v>3.93</v>
+      </c>
+      <c r="K132">
+        <v>4.01</v>
+      </c>
+      <c r="L132">
+        <v>4.12</v>
+      </c>
+      <c r="M132">
+        <v>4.24</v>
+      </c>
+      <c r="N132">
+        <v>4.57</v>
+      </c>
+      <c r="O132">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B133">
+        <v>4.37</v>
+      </c>
+      <c r="C133">
+        <v>4.34</v>
+      </c>
+      <c r="D133">
+        <v>4.32</v>
+      </c>
+      <c r="E133">
+        <v>4.33</v>
+      </c>
+      <c r="F133">
+        <v>4.3</v>
+      </c>
+      <c r="G133">
+        <v>4.29</v>
+      </c>
+      <c r="H133">
+        <v>4.1</v>
+      </c>
+      <c r="I133">
+        <v>3.99</v>
+      </c>
+      <c r="J133">
+        <v>3.95</v>
+      </c>
+      <c r="K133">
+        <v>4.03</v>
+      </c>
+      <c r="L133">
+        <v>4.14</v>
+      </c>
+      <c r="M133">
+        <v>4.25</v>
+      </c>
+      <c r="N133">
+        <v>4.58</v>
+      </c>
+      <c r="O133">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B134">
+        <v>4.37</v>
+      </c>
+      <c r="C134">
+        <v>4.35</v>
+      </c>
+      <c r="D134">
+        <v>4.33</v>
+      </c>
+      <c r="E134">
+        <v>4.34</v>
+      </c>
+      <c r="F134">
+        <v>4.29</v>
+      </c>
+      <c r="G134">
+        <v>4.29</v>
+      </c>
+      <c r="H134">
+        <v>4.13</v>
+      </c>
+      <c r="I134">
+        <v>4.04</v>
+      </c>
+      <c r="J134">
+        <v>4.01</v>
+      </c>
+      <c r="K134">
+        <v>4.07</v>
+      </c>
+      <c r="L134">
+        <v>4.18</v>
+      </c>
+      <c r="M134">
+        <v>4.29</v>
+      </c>
+      <c r="N134">
+        <v>4.61</v>
+      </c>
+      <c r="O134">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B135">
+        <v>4.37</v>
+      </c>
+      <c r="C135">
+        <v>4.35</v>
+      </c>
+      <c r="D135">
+        <v>4.33</v>
+      </c>
+      <c r="E135">
+        <v>4.34</v>
+      </c>
+      <c r="F135">
+        <v>4.3</v>
+      </c>
+      <c r="G135">
+        <v>4.29</v>
+      </c>
+      <c r="H135">
+        <v>4.11</v>
+      </c>
+      <c r="I135">
+        <v>4.06</v>
+      </c>
+      <c r="J135">
+        <v>4.03</v>
+      </c>
+      <c r="K135">
+        <v>4.11</v>
+      </c>
+      <c r="L135">
+        <v>4.21</v>
+      </c>
+      <c r="M135">
+        <v>4.31</v>
+      </c>
+      <c r="N135">
+        <v>4.64</v>
+      </c>
+      <c r="O135">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B136">
+        <v>4.37</v>
+      </c>
+      <c r="C136">
+        <v>4.36</v>
+      </c>
+      <c r="D136">
+        <v>4.33</v>
+      </c>
+      <c r="E136">
+        <v>4.33</v>
+      </c>
+      <c r="F136">
+        <v>4.3</v>
+      </c>
+      <c r="G136">
+        <v>4.29</v>
+      </c>
+      <c r="H136">
+        <v>4.09</v>
+      </c>
+      <c r="I136">
+        <v>4.02</v>
+      </c>
+      <c r="J136">
+        <v>4</v>
+      </c>
+      <c r="K136">
+        <v>4.09</v>
+      </c>
+      <c r="L136">
+        <v>4.2</v>
+      </c>
+      <c r="M136">
+        <v>4.31</v>
+      </c>
+      <c r="N136">
+        <v>4.65</v>
+      </c>
+      <c r="O136">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B137">
+        <v>4.37</v>
+      </c>
+      <c r="C137">
+        <v>4.37</v>
+      </c>
+      <c r="D137">
+        <v>4.34</v>
+      </c>
+      <c r="E137">
+        <v>4.34</v>
+      </c>
+      <c r="F137">
+        <v>4.28</v>
+      </c>
+      <c r="G137">
+        <v>4.27</v>
+      </c>
+      <c r="H137">
+        <v>4.03</v>
+      </c>
+      <c r="I137">
+        <v>3.94</v>
+      </c>
+      <c r="J137">
+        <v>3.93</v>
+      </c>
+      <c r="K137">
+        <v>4.02</v>
+      </c>
+      <c r="L137">
+        <v>4.15</v>
+      </c>
+      <c r="M137">
+        <v>4.27</v>
+      </c>
+      <c r="N137">
+        <v>4.63</v>
+      </c>
+      <c r="O137">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B138">
+        <v>4.36</v>
+      </c>
+      <c r="C138">
+        <v>4.36</v>
+      </c>
+      <c r="D138">
+        <v>4.34</v>
+      </c>
+      <c r="E138">
+        <v>4.35</v>
+      </c>
+      <c r="F138">
+        <v>4.3</v>
+      </c>
+      <c r="G138">
+        <v>4.27</v>
+      </c>
+      <c r="H138">
+        <v>4.07</v>
+      </c>
+      <c r="I138">
+        <v>4.01</v>
+      </c>
+      <c r="J138">
+        <v>3.98</v>
+      </c>
+      <c r="K138">
+        <v>4.09</v>
+      </c>
+      <c r="L138">
+        <v>4.2</v>
+      </c>
+      <c r="M138">
+        <v>4.32</v>
+      </c>
+      <c r="N138">
+        <v>4.67</v>
+      </c>
+      <c r="O138">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B139">
+        <v>4.37</v>
+      </c>
+      <c r="C139">
+        <v>4.37</v>
+      </c>
+      <c r="D139">
+        <v>4.33</v>
+      </c>
+      <c r="E139">
+        <v>4.34</v>
+      </c>
+      <c r="F139">
+        <v>4.28</v>
+      </c>
+      <c r="G139">
+        <v>4.26</v>
+      </c>
+      <c r="H139">
+        <v>4.03</v>
+      </c>
+      <c r="I139">
+        <v>3.94</v>
+      </c>
+      <c r="J139">
+        <v>3.92</v>
+      </c>
+      <c r="K139">
+        <v>4.03</v>
+      </c>
+      <c r="L139">
+        <v>4.16</v>
+      </c>
+      <c r="M139">
+        <v>4.28</v>
+      </c>
+      <c r="N139">
+        <v>4.63</v>
+      </c>
+      <c r="O139">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B140">
+        <v>4.37</v>
+      </c>
+      <c r="C140">
+        <v>4.35</v>
+      </c>
+      <c r="D140">
+        <v>4.34</v>
+      </c>
+      <c r="E140">
+        <v>4.33</v>
+      </c>
+      <c r="F140">
+        <v>4.28</v>
+      </c>
+      <c r="G140">
+        <v>4.25</v>
+      </c>
+      <c r="H140">
+        <v>3.98</v>
+      </c>
+      <c r="I140">
+        <v>3.89</v>
+      </c>
+      <c r="J140">
+        <v>3.91</v>
+      </c>
+      <c r="K140">
+        <v>3.98</v>
+      </c>
+      <c r="L140">
+        <v>4.1</v>
+      </c>
+      <c r="M140">
+        <v>4.22</v>
+      </c>
+      <c r="N140">
+        <v>4.58</v>
+      </c>
+      <c r="O140">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B141">
+        <v>4.38</v>
+      </c>
+      <c r="C141">
+        <v>4.36</v>
+      </c>
+      <c r="D141">
+        <v>4.33</v>
+      </c>
+      <c r="E141">
+        <v>4.34</v>
+      </c>
+      <c r="F141">
+        <v>4.29</v>
+      </c>
+      <c r="G141">
+        <v>4.29</v>
+      </c>
+      <c r="H141">
+        <v>4.05</v>
+      </c>
+      <c r="I141">
+        <v>3.99</v>
+      </c>
+      <c r="J141">
+        <v>4.01</v>
+      </c>
+      <c r="K141">
+        <v>4.09</v>
+      </c>
+      <c r="L141">
+        <v>4.21</v>
+      </c>
+      <c r="M141">
+        <v>4.32</v>
+      </c>
+      <c r="N141">
+        <v>4.66</v>
+      </c>
+      <c r="O141">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B142">
+        <v>4.38</v>
+      </c>
+      <c r="C142">
+        <v>4.37</v>
+      </c>
+      <c r="D142">
+        <v>4.34</v>
+      </c>
+      <c r="E142">
+        <v>4.34</v>
+      </c>
+      <c r="F142">
+        <v>4.28</v>
+      </c>
+      <c r="G142">
+        <v>4.27</v>
+      </c>
+      <c r="H142">
+        <v>4.02</v>
+      </c>
+      <c r="I142">
+        <v>3.96</v>
+      </c>
+      <c r="J142">
+        <v>3.98</v>
+      </c>
+      <c r="K142">
+        <v>4.06</v>
+      </c>
+      <c r="L142">
+        <v>4.18</v>
+      </c>
+      <c r="M142">
+        <v>4.29</v>
+      </c>
+      <c r="N142">
+        <v>4.63</v>
+      </c>
+      <c r="O142">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B143">
+        <v>4.38</v>
+      </c>
+      <c r="C143">
+        <v>4.38</v>
+      </c>
+      <c r="D143">
+        <v>4.36</v>
+      </c>
+      <c r="E143">
+        <v>4.35</v>
+      </c>
+      <c r="F143">
+        <v>4.3</v>
+      </c>
+      <c r="G143">
+        <v>4.3</v>
+      </c>
+      <c r="H143">
+        <v>4.06</v>
+      </c>
+      <c r="I143">
+        <v>3.99</v>
+      </c>
+      <c r="J143">
+        <v>4.01</v>
+      </c>
+      <c r="K143">
+        <v>4.08</v>
+      </c>
+      <c r="L143">
+        <v>4.18</v>
+      </c>
+      <c r="M143">
+        <v>4.28</v>
+      </c>
+      <c r="N143">
+        <v>4.61</v>
+      </c>
+      <c r="O143">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B144">
+        <v>4.39</v>
+      </c>
+      <c r="C144">
+        <v>4.38</v>
+      </c>
+      <c r="D144">
+        <v>4.37</v>
+      </c>
+      <c r="E144">
+        <v>4.34</v>
+      </c>
+      <c r="F144">
+        <v>4.31</v>
+      </c>
+      <c r="G144">
+        <v>4.28</v>
+      </c>
+      <c r="H144">
+        <v>4.04</v>
+      </c>
+      <c r="I144">
+        <v>3.96</v>
+      </c>
+      <c r="J144">
+        <v>3.94</v>
+      </c>
+      <c r="K144">
+        <v>4.01</v>
+      </c>
+      <c r="L144">
+        <v>4.11</v>
+      </c>
+      <c r="M144">
+        <v>4.22</v>
+      </c>
+      <c r="N144">
+        <v>4.56</v>
+      </c>
+      <c r="O144">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B145">
+        <v>4.38</v>
+      </c>
+      <c r="C145">
+        <v>4.38</v>
+      </c>
+      <c r="D145">
+        <v>4.37</v>
+      </c>
+      <c r="E145">
+        <v>4.35</v>
+      </c>
+      <c r="F145">
+        <v>4.31</v>
+      </c>
+      <c r="G145">
+        <v>4.31</v>
+      </c>
+      <c r="H145">
+        <v>4.06</v>
+      </c>
+      <c r="I145">
+        <v>3.96</v>
+      </c>
+      <c r="J145">
+        <v>3.93</v>
+      </c>
+      <c r="K145">
+        <v>3.97</v>
+      </c>
+      <c r="L145">
+        <v>4.06</v>
+      </c>
+      <c r="M145">
+        <v>4.16</v>
+      </c>
+      <c r="N145">
+        <v>4.49</v>
+      </c>
+      <c r="O145">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B146">
+        <v>4.38</v>
+      </c>
+      <c r="C146">
+        <v>4.37</v>
+      </c>
+      <c r="D146">
+        <v>4.38</v>
+      </c>
+      <c r="E146">
+        <v>4.32</v>
+      </c>
+      <c r="F146">
+        <v>4.32</v>
+      </c>
+      <c r="G146">
+        <v>4.25</v>
+      </c>
+      <c r="H146">
+        <v>4.08</v>
+      </c>
+      <c r="I146">
+        <v>3.99</v>
+      </c>
+      <c r="J146">
+        <v>3.99</v>
+      </c>
+      <c r="K146">
+        <v>4.03</v>
+      </c>
+      <c r="L146">
+        <v>4.14</v>
+      </c>
+      <c r="M146">
+        <v>4.24</v>
+      </c>
+      <c r="N146">
+        <v>4.55</v>
+      </c>
+      <c r="O146">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B147">
+        <v>4.38</v>
+      </c>
+      <c r="C147">
+        <v>4.38</v>
+      </c>
+      <c r="D147">
+        <v>4.38</v>
+      </c>
+      <c r="E147">
+        <v>4.32</v>
+      </c>
+      <c r="F147">
+        <v>4.32</v>
+      </c>
+      <c r="G147">
+        <v>4.28</v>
+      </c>
+      <c r="H147">
+        <v>4.13</v>
+      </c>
+      <c r="I147">
+        <v>4.07</v>
+      </c>
+      <c r="J147">
+        <v>4.05</v>
+      </c>
+      <c r="K147">
+        <v>4.09</v>
+      </c>
+      <c r="L147">
+        <v>4.19</v>
+      </c>
+      <c r="M147">
+        <v>4.29</v>
+      </c>
+      <c r="N147">
+        <v>4.59</v>
+      </c>
+      <c r="O147">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B148">
+        <v>4.35</v>
+      </c>
+      <c r="C148">
+        <v>4.38</v>
+      </c>
+      <c r="D148">
+        <v>4.37</v>
+      </c>
+      <c r="E148">
+        <v>4.31</v>
+      </c>
+      <c r="F148">
+        <v>4.32</v>
+      </c>
+      <c r="G148">
+        <v>4.28</v>
+      </c>
+      <c r="H148">
+        <v>4.12</v>
+      </c>
+      <c r="I148">
+        <v>4.05</v>
+      </c>
+      <c r="J148">
+        <v>4.04</v>
+      </c>
+      <c r="K148">
+        <v>4.06</v>
+      </c>
+      <c r="L148">
+        <v>4.16</v>
+      </c>
+      <c r="M148">
+        <v>4.25</v>
+      </c>
+      <c r="N148">
+        <v>4.55</v>
+      </c>
+      <c r="O148">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B149">
+        <v>4.34</v>
+      </c>
+      <c r="C149">
+        <v>4.37</v>
+      </c>
+      <c r="D149">
+        <v>4.37</v>
+      </c>
+      <c r="E149">
+        <v>4.3</v>
+      </c>
+      <c r="F149">
+        <v>4.33</v>
+      </c>
+      <c r="G149">
+        <v>4.28</v>
+      </c>
+      <c r="H149">
+        <v>4.12</v>
+      </c>
+      <c r="I149">
+        <v>4.07</v>
+      </c>
+      <c r="J149">
+        <v>4.08</v>
+      </c>
+      <c r="K149">
+        <v>4.12</v>
+      </c>
+      <c r="L149">
+        <v>4.21</v>
+      </c>
+      <c r="M149">
+        <v>4.3</v>
+      </c>
+      <c r="N149">
+        <v>4.59</v>
+      </c>
+      <c r="O149">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B150">
+        <v>4.36</v>
+      </c>
+      <c r="C150">
+        <v>4.38</v>
+      </c>
+      <c r="D150">
+        <v>4.37</v>
+      </c>
+      <c r="E150">
+        <v>4.31</v>
+      </c>
+      <c r="F150">
+        <v>4.34</v>
+      </c>
+      <c r="G150">
+        <v>4.3</v>
+      </c>
+      <c r="H150">
+        <v>4.15</v>
+      </c>
+      <c r="I150">
+        <v>4.13</v>
+      </c>
+      <c r="J150">
+        <v>4.17</v>
+      </c>
+      <c r="K150">
+        <v>4.23</v>
+      </c>
+      <c r="L150">
+        <v>4.32</v>
+      </c>
+      <c r="M150">
+        <v>4.4</v>
+      </c>
+      <c r="N150">
+        <v>4.69</v>
+      </c>
+      <c r="O150">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B151">
+        <v>4.36</v>
+      </c>
+      <c r="C151">
+        <v>4.39</v>
+      </c>
+      <c r="D151">
+        <v>4.38</v>
+      </c>
+      <c r="E151">
+        <v>4.32</v>
+      </c>
+      <c r="F151">
+        <v>4.34</v>
+      </c>
+      <c r="G151">
+        <v>4.3</v>
+      </c>
+      <c r="H151">
+        <v>4.15</v>
+      </c>
+      <c r="I151">
+        <v>4.19</v>
+      </c>
+      <c r="J151">
+        <v>4.19</v>
+      </c>
+      <c r="K151">
+        <v>4.26</v>
+      </c>
+      <c r="L151">
+        <v>4.35</v>
+      </c>
+      <c r="M151">
+        <v>4.42</v>
+      </c>
+      <c r="N151">
+        <v>4.69</v>
+      </c>
+      <c r="O151">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B152">
+        <v>4.37</v>
+      </c>
+      <c r="C152">
+        <v>4.4</v>
+      </c>
+      <c r="D152">
+        <v>4.38</v>
+      </c>
+      <c r="E152">
+        <v>4.33</v>
+      </c>
+      <c r="F152">
+        <v>4.35</v>
+      </c>
+      <c r="G152">
+        <v>4.33</v>
+      </c>
+      <c r="H152">
+        <v>4.2</v>
+      </c>
+      <c r="I152">
+        <v>4.28</v>
+      </c>
+      <c r="J152">
+        <v>4.27</v>
+      </c>
+      <c r="K152">
+        <v>4.34</v>
+      </c>
+      <c r="L152">
+        <v>4.43</v>
+      </c>
+      <c r="M152">
+        <v>4.5</v>
+      </c>
+      <c r="N152">
+        <v>4.77</v>
+      </c>
+      <c r="O152">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B153">
+        <v>4.38</v>
+      </c>
+      <c r="C153">
+        <v>4.42</v>
+      </c>
+      <c r="D153">
+        <v>4.38</v>
+      </c>
+      <c r="E153">
+        <v>4.34</v>
+      </c>
+      <c r="F153">
+        <v>4.35</v>
+      </c>
+      <c r="G153">
+        <v>4.34</v>
+      </c>
+      <c r="H153">
+        <v>4.22</v>
+      </c>
+      <c r="I153">
+        <v>4.28</v>
+      </c>
+      <c r="J153">
+        <v>4.3</v>
+      </c>
+      <c r="K153">
+        <v>4.37</v>
+      </c>
+      <c r="L153">
+        <v>4.46</v>
+      </c>
+      <c r="M153">
+        <v>4.53</v>
+      </c>
+      <c r="N153">
+        <v>4.79</v>
+      </c>
+      <c r="O153">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B154">
+        <v>4.38</v>
+      </c>
+      <c r="C154">
+        <v>4.41</v>
+      </c>
+      <c r="D154">
+        <v>4.38</v>
+      </c>
+      <c r="E154">
+        <v>4.34</v>
+      </c>
+      <c r="F154">
+        <v>4.37</v>
+      </c>
+      <c r="G154">
+        <v>4.34</v>
+      </c>
+      <c r="H154">
+        <v>4.24</v>
+      </c>
+      <c r="I154">
+        <v>4.29</v>
+      </c>
+      <c r="J154">
+        <v>4.33</v>
+      </c>
+      <c r="K154">
+        <v>4.4</v>
+      </c>
+      <c r="L154">
+        <v>4.48</v>
+      </c>
+      <c r="M154">
+        <v>4.55</v>
+      </c>
+      <c r="N154">
+        <v>4.83</v>
+      </c>
+      <c r="O154">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B155">
+        <v>4.37</v>
+      </c>
+      <c r="D155">
+        <v>4.38</v>
+      </c>
+      <c r="E155">
+        <v>4.34</v>
+      </c>
+      <c r="F155">
+        <v>4.35</v>
+      </c>
+      <c r="G155">
+        <v>4.32</v>
+      </c>
+      <c r="H155">
+        <v>4.23</v>
+      </c>
+      <c r="I155">
+        <v>4.26</v>
+      </c>
+      <c r="J155">
+        <v>4.26</v>
+      </c>
+      <c r="K155">
+        <v>4.33</v>
+      </c>
+      <c r="L155">
+        <v>4.41</v>
+      </c>
+      <c r="M155">
+        <v>4.47</v>
+      </c>
+      <c r="N155">
+        <v>4.75</v>
+      </c>
+      <c r="O155">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B156">
+        <v>4.37</v>
+      </c>
+      <c r="D156">
+        <v>4.39</v>
+      </c>
+      <c r="E156">
+        <v>4.34</v>
+      </c>
+      <c r="F156">
+        <v>4.35</v>
+      </c>
+      <c r="G156">
+        <v>4.33</v>
+      </c>
+      <c r="H156">
+        <v>4.27</v>
+      </c>
+      <c r="I156">
+        <v>4.31</v>
+      </c>
+      <c r="J156">
+        <v>4.31</v>
+      </c>
+      <c r="K156">
+        <v>4.39</v>
+      </c>
+      <c r="L156">
+        <v>4.46</v>
+      </c>
+      <c r="M156">
+        <v>4.52</v>
+      </c>
+      <c r="N156">
+        <v>4.79</v>
+      </c>
+      <c r="O156">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B157">
+        <v>4.38</v>
+      </c>
+      <c r="D157">
+        <v>4.39</v>
+      </c>
+      <c r="E157">
+        <v>4.35</v>
+      </c>
+      <c r="F157">
+        <v>4.36</v>
+      </c>
+      <c r="G157">
+        <v>4.33</v>
+      </c>
+      <c r="H157">
+        <v>4.3</v>
+      </c>
+      <c r="I157">
+        <v>4.36</v>
+      </c>
+      <c r="J157">
+        <v>4.37</v>
+      </c>
+      <c r="K157">
+        <v>4.48</v>
+      </c>
+      <c r="L157">
+        <v>4.56</v>
+      </c>
+      <c r="M157">
+        <v>4.62</v>
+      </c>
+      <c r="N157">
+        <v>4.9</v>
+      </c>
+      <c r="O157">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B158">
+        <v>4.38</v>
+      </c>
+      <c r="D158">
+        <v>4.4</v>
+      </c>
+      <c r="E158">
+        <v>4.35</v>
+      </c>
+      <c r="F158">
+        <v>4.37</v>
+      </c>
+      <c r="G158">
+        <v>4.31</v>
+      </c>
+      <c r="H158">
+        <v>4.25</v>
+      </c>
+      <c r="I158">
+        <v>4.29</v>
+      </c>
+      <c r="J158">
+        <v>4.28</v>
+      </c>
+      <c r="K158">
+        <v>4.37</v>
+      </c>
+      <c r="L158">
+        <v>4.45</v>
+      </c>
+      <c r="M158">
+        <v>4.54</v>
+      </c>
+      <c r="N158">
+        <v>4.8</v>
+      </c>
+      <c r="O158">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B159">
+        <v>4.38</v>
+      </c>
+      <c r="D159">
+        <v>4.4</v>
+      </c>
+      <c r="E159">
+        <v>4.35</v>
+      </c>
+      <c r="F159">
+        <v>4.37</v>
+      </c>
+      <c r="G159">
+        <v>4.31</v>
+      </c>
+      <c r="H159">
+        <v>4.24</v>
+      </c>
+      <c r="I159">
+        <v>4.28</v>
+      </c>
+      <c r="J159">
+        <v>4.3</v>
+      </c>
+      <c r="K159">
+        <v>4.34</v>
+      </c>
+      <c r="L159">
+        <v>4.42</v>
+      </c>
+      <c r="M159">
+        <v>4.51</v>
+      </c>
+      <c r="N159">
+        <v>4.76</v>
+      </c>
+      <c r="O159">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B160">
+        <v>4.37</v>
+      </c>
+      <c r="D160">
+        <v>4.38</v>
+      </c>
+      <c r="E160">
+        <v>4.35</v>
+      </c>
+      <c r="F160">
+        <v>4.37</v>
+      </c>
+      <c r="G160">
+        <v>4.3</v>
+      </c>
+      <c r="H160">
+        <v>4.25</v>
+      </c>
+      <c r="I160">
+        <v>4.29</v>
+      </c>
+      <c r="J160">
+        <v>4.31</v>
+      </c>
+      <c r="K160">
+        <v>4.34</v>
+      </c>
+      <c r="L160">
+        <v>4.42</v>
+      </c>
+      <c r="M160">
+        <v>4.49</v>
+      </c>
+      <c r="N160">
+        <v>4.75</v>
+      </c>
+      <c r="O160">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B161">
+        <v>4.37</v>
+      </c>
+      <c r="D161">
+        <v>4.38</v>
+      </c>
+      <c r="E161">
+        <v>4.34</v>
+      </c>
+      <c r="F161">
+        <v>4.36</v>
+      </c>
+      <c r="G161">
+        <v>4.28</v>
+      </c>
+      <c r="H161">
+        <v>4.19</v>
+      </c>
+      <c r="I161">
+        <v>4.21</v>
+      </c>
+      <c r="J161">
+        <v>4.23</v>
+      </c>
+      <c r="K161">
+        <v>4.28</v>
+      </c>
+      <c r="L161">
+        <v>4.36</v>
+      </c>
+      <c r="M161">
+        <v>4.45</v>
+      </c>
+      <c r="N161">
+        <v>4.7</v>
+      </c>
+      <c r="O161">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B162">
+        <v>4.35</v>
+      </c>
+      <c r="D162">
+        <v>4.37</v>
+      </c>
+      <c r="E162">
+        <v>4.33</v>
+      </c>
+      <c r="F162">
+        <v>4.35</v>
+      </c>
+      <c r="G162">
+        <v>4.27</v>
+      </c>
+      <c r="H162">
+        <v>4.17</v>
+      </c>
+      <c r="I162">
+        <v>4.17</v>
+      </c>
+      <c r="J162">
+        <v>4.19</v>
+      </c>
+      <c r="K162">
+        <v>4.24</v>
+      </c>
+      <c r="L162">
+        <v>4.33</v>
+      </c>
+      <c r="M162">
+        <v>4.43</v>
+      </c>
+      <c r="N162">
+        <v>4.69</v>
+      </c>
+      <c r="O162">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B163">
+        <v>4.36</v>
+      </c>
+      <c r="D163">
+        <v>4.38</v>
+      </c>
+      <c r="E163">
+        <v>4.33</v>
+      </c>
+      <c r="F163">
+        <v>4.35</v>
+      </c>
+      <c r="G163">
+        <v>4.27</v>
+      </c>
+      <c r="H163">
+        <v>4.18</v>
+      </c>
+      <c r="I163">
+        <v>4.21</v>
+      </c>
+      <c r="J163">
+        <v>4.25</v>
+      </c>
+      <c r="K163">
+        <v>4.31</v>
+      </c>
+      <c r="L163">
+        <v>4.42</v>
+      </c>
+      <c r="M163">
+        <v>4.52</v>
+      </c>
+      <c r="N163">
+        <v>4.81</v>
+      </c>
+      <c r="O163">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B164">
+        <v>4.37</v>
+      </c>
+      <c r="D164">
+        <v>4.38</v>
+      </c>
+      <c r="E164">
+        <v>4.34</v>
+      </c>
+      <c r="F164">
+        <v>4.35</v>
+      </c>
+      <c r="G164">
+        <v>4.28</v>
+      </c>
+      <c r="H164">
+        <v>4.2</v>
+      </c>
+      <c r="I164">
+        <v>4.26</v>
+      </c>
+      <c r="J164">
+        <v>4.28</v>
+      </c>
+      <c r="K164">
+        <v>4.35</v>
+      </c>
+      <c r="L164">
+        <v>4.45</v>
+      </c>
+      <c r="M164">
+        <v>4.54</v>
+      </c>
+      <c r="N164">
+        <v>4.82</v>
+      </c>
+      <c r="O164">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B165">
+        <v>4.37</v>
+      </c>
+      <c r="D165">
+        <v>4.37</v>
+      </c>
+      <c r="E165">
+        <v>4.31</v>
+      </c>
+      <c r="F165">
+        <v>4.33</v>
+      </c>
+      <c r="G165">
+        <v>4.28</v>
+      </c>
+      <c r="H165">
+        <v>4.17</v>
+      </c>
+      <c r="I165">
+        <v>4.22</v>
+      </c>
+      <c r="J165">
+        <v>4.27</v>
+      </c>
+      <c r="K165">
+        <v>4.36</v>
+      </c>
+      <c r="L165">
+        <v>4.47</v>
+      </c>
+      <c r="M165">
+        <v>4.58</v>
+      </c>
+      <c r="N165">
+        <v>4.88</v>
+      </c>
+      <c r="O165">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B166">
+        <v>4.37</v>
+      </c>
+      <c r="D166">
+        <v>4.38</v>
+      </c>
+      <c r="E166">
+        <v>4.3</v>
+      </c>
+      <c r="F166">
+        <v>4.33</v>
+      </c>
+      <c r="G166">
+        <v>4.27</v>
+      </c>
+      <c r="H166">
+        <v>4.16</v>
+      </c>
+      <c r="I166">
+        <v>4.18</v>
+      </c>
+      <c r="J166">
+        <v>4.24</v>
+      </c>
+      <c r="K166">
+        <v>4.31</v>
+      </c>
+      <c r="L166">
+        <v>4.41</v>
+      </c>
+      <c r="M166">
+        <v>4.52</v>
+      </c>
+      <c r="N166">
+        <v>4.81</v>
+      </c>
+      <c r="O166">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B167">
+        <v>4.43</v>
+      </c>
+      <c r="D167">
+        <v>4.34</v>
+      </c>
+      <c r="E167">
+        <v>4.31</v>
+      </c>
+      <c r="F167">
+        <v>4.34</v>
+      </c>
+      <c r="G167">
+        <v>4.27</v>
+      </c>
+      <c r="H167">
+        <v>4.17</v>
+      </c>
+      <c r="I167">
+        <v>4.21</v>
+      </c>
+      <c r="J167">
+        <v>4.27</v>
+      </c>
+      <c r="K167">
+        <v>4.35</v>
+      </c>
+      <c r="L167">
+        <v>4.44</v>
+      </c>
+      <c r="M167">
+        <v>4.55</v>
+      </c>
+      <c r="N167">
+        <v>4.85</v>
+      </c>
+      <c r="O167">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B168">
+        <v>4.44</v>
+      </c>
+      <c r="D168">
+        <v>4.35</v>
+      </c>
+      <c r="E168">
+        <v>4.31</v>
+      </c>
+      <c r="F168">
+        <v>4.3</v>
+      </c>
+      <c r="G168">
+        <v>4.26</v>
+      </c>
+      <c r="H168">
+        <v>4.14</v>
+      </c>
+      <c r="I168">
+        <v>4.19</v>
+      </c>
+      <c r="J168">
+        <v>4.25</v>
+      </c>
+      <c r="K168">
+        <v>4.33</v>
+      </c>
+      <c r="L168">
+        <v>4.43</v>
+      </c>
+      <c r="M168">
+        <v>4.55</v>
+      </c>
+      <c r="N168">
+        <v>4.84</v>
+      </c>
+      <c r="O168">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B169">
+        <v>4.44</v>
+      </c>
+      <c r="D169">
+        <v>4.36</v>
+      </c>
+      <c r="E169">
+        <v>4.32</v>
+      </c>
+      <c r="F169">
+        <v>4.3</v>
+      </c>
+      <c r="G169">
+        <v>4.25</v>
+      </c>
+      <c r="H169">
+        <v>4.13</v>
+      </c>
+      <c r="I169">
+        <v>4.17</v>
+      </c>
+      <c r="J169">
+        <v>4.24</v>
+      </c>
+      <c r="K169">
+        <v>4.32</v>
+      </c>
+      <c r="L169">
+        <v>4.43</v>
+      </c>
+      <c r="M169">
+        <v>4.53</v>
+      </c>
+      <c r="N169">
+        <v>4.82</v>
+      </c>
+      <c r="O169">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B170">
+        <v>4.45</v>
+      </c>
+      <c r="D170">
+        <v>4.36</v>
+      </c>
+      <c r="E170">
+        <v>4.35</v>
+      </c>
+      <c r="F170">
+        <v>4.32</v>
+      </c>
+      <c r="G170">
+        <v>4.25</v>
+      </c>
+      <c r="H170">
+        <v>4.17</v>
+      </c>
+      <c r="I170">
+        <v>4.27</v>
+      </c>
+      <c r="J170">
+        <v>4.33</v>
+      </c>
+      <c r="K170">
+        <v>4.43</v>
+      </c>
+      <c r="L170">
+        <v>4.53</v>
+      </c>
+      <c r="M170">
+        <v>4.63</v>
+      </c>
+      <c r="N170">
+        <v>4.91</v>
+      </c>
+      <c r="O170">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B171">
+        <v>4.45</v>
+      </c>
+      <c r="D171">
+        <v>4.36</v>
+      </c>
+      <c r="E171">
+        <v>4.36</v>
+      </c>
+      <c r="F171">
+        <v>4.32</v>
+      </c>
+      <c r="G171">
+        <v>4.27</v>
+      </c>
+      <c r="H171">
+        <v>4.18</v>
+      </c>
+      <c r="I171">
+        <v>4.29</v>
+      </c>
+      <c r="J171">
+        <v>4.35</v>
+      </c>
+      <c r="K171">
+        <v>4.45</v>
+      </c>
+      <c r="L171">
+        <v>4.55</v>
+      </c>
+      <c r="M171">
+        <v>4.65</v>
+      </c>
+      <c r="N171">
+        <v>4.92</v>
+      </c>
+      <c r="O171">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B172">
+        <v>4.42</v>
+      </c>
+      <c r="D172">
+        <v>4.35</v>
+      </c>
+      <c r="E172">
+        <v>4.36</v>
+      </c>
+      <c r="F172">
+        <v>4.32</v>
+      </c>
+      <c r="G172">
+        <v>4.28</v>
+      </c>
+      <c r="H172">
+        <v>4.2</v>
+      </c>
+      <c r="I172">
+        <v>4.29</v>
+      </c>
+      <c r="J172">
+        <v>4.34</v>
+      </c>
+      <c r="K172">
+        <v>4.43</v>
+      </c>
+      <c r="L172">
+        <v>4.51</v>
+      </c>
+      <c r="M172">
+        <v>4.6</v>
+      </c>
+      <c r="N172">
+        <v>4.89</v>
+      </c>
+      <c r="O172">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B173">
+        <v>4.42</v>
+      </c>
+      <c r="D173">
+        <v>4.35</v>
+      </c>
+      <c r="E173">
+        <v>4.36</v>
+      </c>
+      <c r="F173">
+        <v>4.33</v>
+      </c>
+      <c r="G173">
+        <v>4.28</v>
+      </c>
+      <c r="H173">
+        <v>4.21</v>
+      </c>
+      <c r="I173">
+        <v>4.29</v>
+      </c>
+      <c r="J173">
+        <v>4.33</v>
+      </c>
+      <c r="K173">
+        <v>4.4</v>
+      </c>
+      <c r="L173">
+        <v>4.49</v>
+      </c>
+      <c r="M173">
+        <v>4.57</v>
+      </c>
+      <c r="N173">
+        <v>4.87</v>
+      </c>
+      <c r="O173">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B174">
+        <v>4.43</v>
+      </c>
+      <c r="D174">
+        <v>4.35</v>
+      </c>
+      <c r="E174">
+        <v>4.34</v>
+      </c>
+      <c r="F174">
+        <v>4.32</v>
+      </c>
+      <c r="G174">
+        <v>4.28</v>
+      </c>
+      <c r="H174">
+        <v>4.21</v>
+      </c>
+      <c r="I174">
+        <v>4.27</v>
+      </c>
+      <c r="J174">
+        <v>4.33</v>
+      </c>
+      <c r="K174">
+        <v>4.42</v>
+      </c>
+      <c r="L174">
+        <v>4.52</v>
+      </c>
+      <c r="M174">
+        <v>4.61</v>
+      </c>
+      <c r="N174">
+        <v>4.91</v>
+      </c>
+      <c r="O174">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B175">
+        <v>4.43</v>
+      </c>
+      <c r="D175">
+        <v>4.36</v>
+      </c>
+      <c r="E175">
+        <v>4.34</v>
+      </c>
+      <c r="F175">
+        <v>4.32</v>
+      </c>
+      <c r="G175">
+        <v>4.26</v>
+      </c>
+      <c r="H175">
+        <v>4.18</v>
+      </c>
+      <c r="I175">
+        <v>4.23</v>
+      </c>
+      <c r="J175">
+        <v>4.29</v>
+      </c>
+      <c r="K175">
+        <v>4.39</v>
+      </c>
+      <c r="L175">
+        <v>4.5</v>
+      </c>
+      <c r="M175">
+        <v>4.61</v>
+      </c>
+      <c r="N175">
+        <v>4.91</v>
+      </c>
+      <c r="O175">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B176">
+        <v>4.4</v>
+      </c>
+      <c r="D176">
+        <v>4.34</v>
+      </c>
+      <c r="E176">
+        <v>4.35</v>
+      </c>
+      <c r="F176">
+        <v>4.32</v>
+      </c>
+      <c r="G176">
+        <v>4.26</v>
+      </c>
+      <c r="H176">
+        <v>4.19</v>
+      </c>
+      <c r="I176">
+        <v>4.27</v>
+      </c>
+      <c r="J176">
+        <v>4.34</v>
+      </c>
+      <c r="K176">
+        <v>4.45</v>
+      </c>
+      <c r="L176">
+        <v>4.55</v>
+      </c>
+      <c r="M176">
+        <v>4.66</v>
+      </c>
+      <c r="N176">
+        <v>4.95</v>
+      </c>
+      <c r="O176">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B177">
+        <v>4.42</v>
+      </c>
+      <c r="D177">
+        <v>4.35</v>
+      </c>
+      <c r="E177">
+        <v>4.36</v>
+      </c>
+      <c r="F177">
+        <v>4.33</v>
+      </c>
+      <c r="G177">
+        <v>4.29</v>
+      </c>
+      <c r="H177">
+        <v>4.22</v>
+      </c>
+      <c r="I177">
+        <v>4.37</v>
+      </c>
+      <c r="J177">
+        <v>4.46</v>
+      </c>
+      <c r="K177">
+        <v>4.59</v>
+      </c>
+      <c r="L177">
+        <v>4.7</v>
+      </c>
+      <c r="M177">
+        <v>4.78</v>
+      </c>
+      <c r="N177">
+        <v>5.06</v>
+      </c>
+      <c r="O177">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B178">
+        <v>4.42</v>
+      </c>
+      <c r="D178">
+        <v>4.36</v>
+      </c>
+      <c r="E178">
+        <v>4.37</v>
+      </c>
+      <c r="F178">
+        <v>4.34</v>
+      </c>
+      <c r="G178">
+        <v>4.3</v>
+      </c>
+      <c r="H178">
+        <v>4.24</v>
+      </c>
+      <c r="I178">
+        <v>4.4</v>
+      </c>
+      <c r="J178">
+        <v>4.49</v>
+      </c>
+      <c r="K178">
+        <v>4.61</v>
+      </c>
+      <c r="L178">
+        <v>4.71</v>
+      </c>
+      <c r="M178">
+        <v>4.79</v>
+      </c>
+      <c r="N178">
+        <v>5.05</v>
+      </c>
+      <c r="O178">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B179">
+        <v>4.42</v>
+      </c>
+      <c r="D179">
+        <v>4.35</v>
+      </c>
+      <c r="E179">
+        <v>4.36</v>
+      </c>
+      <c r="F179">
+        <v>4.33</v>
+      </c>
+      <c r="G179">
+        <v>4.27</v>
+      </c>
+      <c r="H179">
+        <v>4.25</v>
+      </c>
+      <c r="I179">
+        <v>4.4</v>
+      </c>
+      <c r="J179">
+        <v>4.46</v>
+      </c>
+      <c r="K179">
+        <v>4.59</v>
+      </c>
+      <c r="L179">
+        <v>4.7</v>
+      </c>
+      <c r="M179">
+        <v>4.77</v>
+      </c>
+      <c r="N179">
+        <v>5.04</v>
+      </c>
+      <c r="O179">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B180">
+        <v>4.44</v>
+      </c>
+      <c r="D180">
+        <v>4.36</v>
+      </c>
+      <c r="E180">
+        <v>4.35</v>
+      </c>
+      <c r="F180">
+        <v>4.31</v>
+      </c>
+      <c r="G180">
+        <v>4.24</v>
+      </c>
+      <c r="H180">
+        <v>4.16</v>
+      </c>
+      <c r="I180">
+        <v>4.27</v>
+      </c>
+      <c r="J180">
+        <v>4.31</v>
+      </c>
+      <c r="K180">
+        <v>4.46</v>
+      </c>
+      <c r="L180">
+        <v>4.57</v>
+      </c>
+      <c r="M180">
+        <v>4.68</v>
+      </c>
+      <c r="N180">
+        <v>4.98</v>
+      </c>
+      <c r="O180">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B181">
+        <v>4.41</v>
+      </c>
+      <c r="D181">
+        <v>4.34</v>
+      </c>
+      <c r="E181">
+        <v>4.35</v>
+      </c>
+      <c r="F181">
+        <v>4.31</v>
+      </c>
+      <c r="G181">
+        <v>4.25</v>
+      </c>
+      <c r="H181">
+        <v>4.19</v>
+      </c>
+      <c r="I181">
+        <v>4.28</v>
+      </c>
+      <c r="J181">
+        <v>4.31</v>
+      </c>
+      <c r="K181">
+        <v>4.45</v>
+      </c>
+      <c r="L181">
+        <v>4.56</v>
+      </c>
+      <c r="M181">
+        <v>4.67</v>
+      </c>
+      <c r="N181">
+        <v>4.97</v>
+      </c>
+      <c r="O181">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B182">
+        <v>4.42</v>
+      </c>
+      <c r="D182">
+        <v>4.35</v>
+      </c>
+      <c r="E182">
+        <v>4.35</v>
+      </c>
+      <c r="F182">
+        <v>4.31</v>
+      </c>
+      <c r="G182">
+        <v>4.24</v>
+      </c>
+      <c r="H182">
+        <v>4.19</v>
+      </c>
+      <c r="I182">
+        <v>4.3</v>
+      </c>
+      <c r="J182">
+        <v>4.33</v>
+      </c>
+      <c r="K182">
+        <v>4.46</v>
+      </c>
+      <c r="L182">
+        <v>4.57</v>
+      </c>
+      <c r="M182">
+        <v>4.67</v>
+      </c>
+      <c r="N182">
+        <v>4.97</v>
+      </c>
+      <c r="O182">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B183">
+        <v>4.43</v>
+      </c>
+      <c r="D183">
+        <v>4.36</v>
+      </c>
+      <c r="E183">
+        <v>4.35</v>
+      </c>
+      <c r="F183">
+        <v>4.31</v>
+      </c>
+      <c r="G183">
+        <v>4.24</v>
+      </c>
+      <c r="H183">
+        <v>4.17</v>
+      </c>
+      <c r="I183">
+        <v>4.28</v>
+      </c>
+      <c r="J183">
+        <v>4.3</v>
+      </c>
+      <c r="K183">
+        <v>4.42</v>
+      </c>
+      <c r="L183">
+        <v>4.52</v>
+      </c>
+      <c r="M183">
+        <v>4.62</v>
+      </c>
+      <c r="N183">
+        <v>4.91</v>
+      </c>
+      <c r="O183">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B184">
+        <v>4.44</v>
+      </c>
+      <c r="D184">
+        <v>4.35</v>
+      </c>
+      <c r="E184">
+        <v>4.34</v>
+      </c>
+      <c r="F184">
+        <v>4.31</v>
+      </c>
+      <c r="G184">
+        <v>4.25</v>
+      </c>
+      <c r="H184">
+        <v>4.18</v>
+      </c>
+      <c r="I184">
+        <v>4.28</v>
+      </c>
+      <c r="J184">
+        <v>4.32</v>
+      </c>
+      <c r="K184">
+        <v>4.41</v>
+      </c>
+      <c r="L184">
+        <v>4.51</v>
+      </c>
+      <c r="M184">
+        <v>4.6</v>
+      </c>
+      <c r="N184">
+        <v>4.88</v>
+      </c>
+      <c r="O184">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B185">
+        <v>4.45</v>
+      </c>
+      <c r="D185">
+        <v>4.36</v>
+      </c>
+      <c r="E185">
+        <v>4.36</v>
+      </c>
+      <c r="F185">
+        <v>4.31</v>
+      </c>
+      <c r="G185">
+        <v>4.25</v>
+      </c>
+      <c r="H185">
+        <v>4.17</v>
+      </c>
+      <c r="I185">
+        <v>4.25</v>
+      </c>
+      <c r="J185">
+        <v>4.29</v>
+      </c>
+      <c r="K185">
+        <v>4.38</v>
+      </c>
+      <c r="L185">
+        <v>4.47</v>
+      </c>
+      <c r="M185">
+        <v>4.57</v>
+      </c>
+      <c r="N185">
+        <v>4.86</v>
+      </c>
+      <c r="O185">
+        <v>4.79</v>
       </c>
     </row>
   </sheetData>
